--- a/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9857156963096735</v>
+        <v>0.9857156963096719</v>
       </c>
       <c r="D2">
-        <v>1.006887480485489</v>
+        <v>1.006887480485488</v>
       </c>
       <c r="E2">
-        <v>0.9757650437313373</v>
+        <v>0.9757650437313369</v>
       </c>
       <c r="F2">
-        <v>0.9932035722693461</v>
+        <v>0.9932035722693452</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039722234348725</v>
+        <v>1.039722234348724</v>
       </c>
       <c r="J2">
-        <v>1.008332207188378</v>
+        <v>1.008332207188377</v>
       </c>
       <c r="K2">
-        <v>1.018251688522868</v>
+        <v>1.018251688522867</v>
       </c>
       <c r="L2">
-        <v>0.9875726638885632</v>
+        <v>0.9875726638885629</v>
       </c>
       <c r="M2">
-        <v>1.004758411286488</v>
+        <v>1.004758411286487</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9924332934580485</v>
+        <v>0.9924332934580471</v>
       </c>
       <c r="D3">
-        <v>1.011793090000554</v>
+        <v>1.011793090000553</v>
       </c>
       <c r="E3">
-        <v>0.9811647370823755</v>
+        <v>0.9811647370823749</v>
       </c>
       <c r="F3">
-        <v>0.9997780971806266</v>
+        <v>0.9997780971806253</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04190276393643</v>
+        <v>1.041902763936429</v>
       </c>
       <c r="J3">
-        <v>1.01313238172356</v>
+        <v>1.013132381723559</v>
       </c>
       <c r="K3">
-        <v>1.02227726739834</v>
+        <v>1.022277267398339</v>
       </c>
       <c r="L3">
-        <v>0.9920444296574216</v>
+        <v>0.9920444296574211</v>
       </c>
       <c r="M3">
-        <v>1.010413818082325</v>
+        <v>1.010413818082324</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9966528683215824</v>
+        <v>0.9966528683215832</v>
       </c>
       <c r="D4">
-        <v>1.014876149987681</v>
+        <v>1.014876149987682</v>
       </c>
       <c r="E4">
-        <v>0.9845756687637457</v>
+        <v>0.9845756687637461</v>
       </c>
       <c r="F4">
-        <v>1.003918293360083</v>
+        <v>1.003918293360084</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.043257108184537</v>
       </c>
       <c r="J4">
-        <v>1.016142583338661</v>
+        <v>1.016142583338662</v>
       </c>
       <c r="K4">
-        <v>1.024798288150596</v>
+        <v>1.024798288150597</v>
       </c>
       <c r="L4">
-        <v>0.9948638870101104</v>
+        <v>0.994863887010111</v>
       </c>
       <c r="M4">
         <v>1.013969656955682</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9983979092789766</v>
+        <v>0.9983979092789773</v>
       </c>
       <c r="D5">
-        <v>1.01615146371913</v>
+        <v>1.016151463719131</v>
       </c>
       <c r="E5">
-        <v>0.9859907400077329</v>
+        <v>0.985990740007733</v>
       </c>
       <c r="F5">
-        <v>1.005632939118494</v>
+        <v>1.005632939118495</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043813455593865</v>
+        <v>1.043813455593866</v>
       </c>
       <c r="J5">
-        <v>1.01738622203029</v>
+        <v>1.017386222030291</v>
       </c>
       <c r="K5">
-        <v>1.025838972885658</v>
+        <v>1.025838972885659</v>
       </c>
       <c r="L5">
-        <v>0.9960323092139426</v>
+        <v>0.9960323092139427</v>
       </c>
       <c r="M5">
-        <v>1.01544094501487</v>
+        <v>1.015440945014871</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,7 +582,7 @@
         <v>0.986227256857696</v>
       </c>
       <c r="F6">
-        <v>1.005919355776675</v>
+        <v>1.005919355776676</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>0.9962275264563208</v>
       </c>
       <c r="M6">
-        <v>1.015686631168685</v>
+        <v>1.015686631168686</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9966762970870741</v>
+        <v>0.9966762970870739</v>
       </c>
       <c r="D7">
-        <v>1.014893271238298</v>
+        <v>1.014893271238297</v>
       </c>
       <c r="E7">
-        <v>0.9845946499567885</v>
+        <v>0.9845946499567886</v>
       </c>
       <c r="F7">
         <v>1.00394130452121</v>
@@ -626,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043264592607433</v>
+        <v>1.043264592607432</v>
       </c>
       <c r="J7">
-        <v>1.016159285373287</v>
+        <v>1.016159285373286</v>
       </c>
       <c r="K7">
         <v>1.024812267936148</v>
@@ -638,7 +638,7 @@
         <v>0.9948795647563721</v>
       </c>
       <c r="M7">
-        <v>1.013989407522332</v>
+        <v>1.013989407522331</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,10 +655,10 @@
         <v>1.008564881912209</v>
       </c>
       <c r="E8">
-        <v>0.9776077089607011</v>
+        <v>0.9776077089607008</v>
       </c>
       <c r="F8">
-        <v>0.9954499313850649</v>
+        <v>0.9954499313850648</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>1.019630072942624</v>
       </c>
       <c r="L8">
-        <v>0.9890997912331566</v>
+        <v>0.9890997912331563</v>
       </c>
       <c r="M8">
         <v>1.006691891047637</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9716960436308485</v>
+        <v>0.9716960436308477</v>
       </c>
       <c r="D9">
-        <v>0.9966642332950167</v>
+        <v>0.9966642332950164</v>
       </c>
       <c r="E9">
-        <v>0.9646111491626523</v>
+        <v>0.9646111491626522</v>
       </c>
       <c r="F9">
-        <v>0.9795456722577259</v>
+        <v>0.9795456722577257</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035089074499609</v>
       </c>
       <c r="J9">
-        <v>0.9982894623722652</v>
+        <v>0.9982894623722647</v>
       </c>
       <c r="K9">
-        <v>1.009811663829084</v>
+        <v>1.009811663829083</v>
       </c>
       <c r="L9">
-        <v>0.9783057245731804</v>
+        <v>0.9783057245731802</v>
       </c>
       <c r="M9">
-        <v>0.9929795595041865</v>
+        <v>0.9929795595041863</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.959988786823357</v>
+        <v>0.9599887868233584</v>
       </c>
       <c r="D10">
-        <v>0.9881476417280711</v>
+        <v>0.9881476417280725</v>
       </c>
       <c r="E10">
-        <v>0.9554109480318116</v>
+        <v>0.9554109480318117</v>
       </c>
       <c r="F10">
-        <v>0.9682031041153438</v>
+        <v>0.968203104115345</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.031150755615802</v>
       </c>
       <c r="J10">
-        <v>0.9898850024300712</v>
+        <v>0.9898850024300725</v>
       </c>
       <c r="K10">
-        <v>1.002734243216632</v>
+        <v>1.002734243216633</v>
       </c>
       <c r="L10">
-        <v>0.9706348079440608</v>
+        <v>0.9706348079440609</v>
       </c>
       <c r="M10">
-        <v>0.9831712158790544</v>
+        <v>0.9831712158790555</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -766,31 +766,31 @@
         <v>0.9546910678815591</v>
       </c>
       <c r="D11">
-        <v>0.9843011759351643</v>
+        <v>0.9843011759351639</v>
       </c>
       <c r="E11">
         <v>0.9512807177145882</v>
       </c>
       <c r="F11">
-        <v>0.9630885943161736</v>
+        <v>0.9630885943161733</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029351720279636</v>
+        <v>1.029351720279635</v>
       </c>
       <c r="J11">
-        <v>0.9860782596320472</v>
+        <v>0.9860782596320469</v>
       </c>
       <c r="K11">
-        <v>0.9995253485710635</v>
+        <v>0.9995253485710632</v>
       </c>
       <c r="L11">
         <v>0.9671838557930994</v>
       </c>
       <c r="M11">
-        <v>0.9787418725906847</v>
+        <v>0.9787418725906843</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9526858405284864</v>
+        <v>0.9526858405284878</v>
       </c>
       <c r="D12">
-        <v>0.9828465868236167</v>
+        <v>0.9828465868236179</v>
       </c>
       <c r="E12">
-        <v>0.9497226856310368</v>
+        <v>0.9497226856310367</v>
       </c>
       <c r="F12">
-        <v>0.9611556338980214</v>
+        <v>0.9611556338980219</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028668361262989</v>
+        <v>1.02866836126299</v>
       </c>
       <c r="J12">
-        <v>0.984636956738671</v>
+        <v>0.9846369567386722</v>
       </c>
       <c r="K12">
-        <v>0.998309966806034</v>
+        <v>0.9983099668060353</v>
       </c>
       <c r="L12">
-        <v>0.9658809572902466</v>
+        <v>0.9658809572902465</v>
       </c>
       <c r="M12">
-        <v>0.9770668886820152</v>
+        <v>0.9770668886820157</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9531177159923898</v>
+        <v>0.9531177159923918</v>
       </c>
       <c r="D13">
-        <v>0.9831598051282783</v>
+        <v>0.9831598051282799</v>
       </c>
       <c r="E13">
-        <v>0.9500580019026021</v>
+        <v>0.9500580019026031</v>
       </c>
       <c r="F13">
-        <v>0.9615718097747038</v>
+        <v>0.9615718097747054</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028815646215153</v>
+        <v>1.028815646215154</v>
       </c>
       <c r="J13">
-        <v>0.9849473940761694</v>
+        <v>0.9849473940761713</v>
       </c>
       <c r="K13">
-        <v>0.9985717625629877</v>
+        <v>0.9985717625629893</v>
       </c>
       <c r="L13">
-        <v>0.9661614146053054</v>
+        <v>0.966161414605306</v>
       </c>
       <c r="M13">
-        <v>0.9774275644648778</v>
+        <v>0.9774275644648791</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9545260978311083</v>
+        <v>0.9545260978311072</v>
       </c>
       <c r="D14">
-        <v>0.9841814786738582</v>
+        <v>0.9841814786738572</v>
       </c>
       <c r="E14">
-        <v>0.9511524290566519</v>
+        <v>0.9511524290566512</v>
       </c>
       <c r="F14">
-        <v>0.9629295092668851</v>
+        <v>0.9629295092668844</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.029295548443589</v>
       </c>
       <c r="J14">
-        <v>0.9859596914705602</v>
+        <v>0.9859596914705592</v>
       </c>
       <c r="K14">
-        <v>0.9994253742394718</v>
+        <v>0.9994253742394708</v>
       </c>
       <c r="L14">
-        <v>0.9670765974845613</v>
+        <v>0.9670765974845605</v>
       </c>
       <c r="M14">
-        <v>0.9786040389240777</v>
+        <v>0.9786040389240768</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -921,7 +921,7 @@
         <v>0.9848074776133535</v>
       </c>
       <c r="E15">
-        <v>0.9518235176300465</v>
+        <v>0.9518235176300468</v>
       </c>
       <c r="F15">
         <v>0.9637615469278823</v>
@@ -933,13 +933,13 @@
         <v>1.029589195705307</v>
       </c>
       <c r="J15">
-        <v>0.9865797142352714</v>
+        <v>0.9865797142352715</v>
       </c>
       <c r="K15">
-        <v>0.999948147805912</v>
+        <v>0.9999481478059122</v>
       </c>
       <c r="L15">
-        <v>0.967637629357091</v>
+        <v>0.9676376293570911</v>
       </c>
       <c r="M15">
         <v>0.9793248893807962</v>
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9603353105641395</v>
+        <v>0.9603353105641397</v>
       </c>
       <c r="D16">
-        <v>0.9883994100359808</v>
+        <v>0.9883994100359812</v>
       </c>
       <c r="E16">
-        <v>0.9556818165116299</v>
+        <v>0.9556818165116301</v>
       </c>
       <c r="F16">
-        <v>0.9685380357975304</v>
+        <v>0.9685380357975308</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031268091424138</v>
+        <v>1.031268091424139</v>
       </c>
       <c r="J16">
-        <v>0.9901339367532157</v>
+        <v>0.990133936753216</v>
       </c>
       <c r="K16">
         <v>1.002944019780037</v>
       </c>
       <c r="L16">
-        <v>0.970860975898879</v>
+        <v>0.9708609758988791</v>
       </c>
       <c r="M16">
-        <v>0.9834611428034437</v>
+        <v>0.983461142803444</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9633749088648302</v>
+        <v>0.9633749088648315</v>
       </c>
       <c r="D17">
-        <v>0.9906087045731462</v>
+        <v>0.9906087045731473</v>
       </c>
       <c r="E17">
-        <v>0.9580615508004725</v>
+        <v>0.9580615508004729</v>
       </c>
       <c r="F17">
-        <v>0.9714780241208946</v>
+        <v>0.9714780241208963</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.032295433432905</v>
       </c>
       <c r="J17">
-        <v>0.9923171187698799</v>
+        <v>0.9923171187698814</v>
       </c>
       <c r="K17">
-        <v>1.004783425591269</v>
+        <v>1.00478342559127</v>
       </c>
       <c r="L17">
-        <v>0.9728471659207099</v>
+        <v>0.9728471659207103</v>
       </c>
       <c r="M17">
-        <v>0.9860053375380875</v>
+        <v>0.9860053375380889</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9651260468487817</v>
+        <v>0.9651260468487812</v>
       </c>
       <c r="D18">
-        <v>0.9918821806663856</v>
+        <v>0.9918821806663853</v>
       </c>
       <c r="E18">
-        <v>0.9594356133882919</v>
+        <v>0.959435613388292</v>
       </c>
       <c r="F18">
-        <v>0.9731734709324773</v>
+        <v>0.9731734709324774</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.032885698614447</v>
       </c>
       <c r="J18">
-        <v>0.9935745224626976</v>
+        <v>0.9935745224626971</v>
       </c>
       <c r="K18">
         <v>1.00584252509346</v>
       </c>
       <c r="L18">
-        <v>0.9739933111202296</v>
+        <v>0.9739933111202298</v>
       </c>
       <c r="M18">
         <v>0.9874719097545056</v>
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9657195287113681</v>
+        <v>0.9657195287113686</v>
       </c>
       <c r="D19">
-        <v>0.9923138870693111</v>
+        <v>0.9923138870693115</v>
       </c>
       <c r="E19">
-        <v>0.9599018127007727</v>
+        <v>0.9599018127007733</v>
       </c>
       <c r="F19">
         <v>0.9737483606750795</v>
@@ -1085,16 +1085,16 @@
         <v>1.033085472499076</v>
       </c>
       <c r="J19">
-        <v>0.9940006098534426</v>
+        <v>0.994000609853443</v>
       </c>
       <c r="K19">
-        <v>1.006201361215058</v>
+        <v>1.006201361215059</v>
       </c>
       <c r="L19">
-        <v>0.9743820658045883</v>
+        <v>0.9743820658045887</v>
       </c>
       <c r="M19">
-        <v>0.987969086087387</v>
+        <v>0.9879690860873871</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.963051065678423</v>
+        <v>0.9630510656784229</v>
       </c>
       <c r="D20">
-        <v>0.9903732507281987</v>
+        <v>0.9903732507281984</v>
       </c>
       <c r="E20">
-        <v>0.9578076883809938</v>
+        <v>0.9578076883809942</v>
       </c>
       <c r="F20">
         <v>0.9711646161061107</v>
@@ -1123,13 +1123,13 @@
         <v>1.032186143856936</v>
       </c>
       <c r="J20">
-        <v>0.9920845545416919</v>
+        <v>0.9920845545416916</v>
       </c>
       <c r="K20">
         <v>1.004587513742866</v>
       </c>
       <c r="L20">
-        <v>0.9726353567090534</v>
+        <v>0.9726353567090538</v>
       </c>
       <c r="M20">
         <v>0.9857341867431001</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9541124243080296</v>
+        <v>0.9541124243080307</v>
       </c>
       <c r="D21">
-        <v>0.9838813518298193</v>
+        <v>0.9838813518298207</v>
       </c>
       <c r="E21">
-        <v>0.9508308228911863</v>
+        <v>0.950830822891187</v>
       </c>
       <c r="F21">
-        <v>0.9625306404321469</v>
+        <v>0.962530640432148</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029154655470996</v>
+        <v>1.029154655470997</v>
       </c>
       <c r="J21">
-        <v>0.9856623674582015</v>
+        <v>0.9856623674582027</v>
       </c>
       <c r="K21">
-        <v>0.9991746696834205</v>
+        <v>0.9991746696834217</v>
       </c>
       <c r="L21">
-        <v>0.9668076942964425</v>
+        <v>0.9668076942964433</v>
       </c>
       <c r="M21">
-        <v>0.9782584374325638</v>
+        <v>0.9782584374325649</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9482740171816341</v>
+        <v>0.9482740171816335</v>
       </c>
       <c r="D22">
-        <v>0.9796489599973927</v>
+        <v>0.9796489599973924</v>
       </c>
       <c r="E22">
-        <v>0.9463049318418677</v>
+        <v>0.9463049318418678</v>
       </c>
       <c r="F22">
-        <v>0.9569084291775123</v>
+        <v>0.9569084291775121</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027160564856475</v>
       </c>
       <c r="J22">
-        <v>0.981465222329246</v>
+        <v>0.9814652223292457</v>
       </c>
       <c r="K22">
-        <v>0.9956346503849192</v>
+        <v>0.9956346503849188</v>
       </c>
       <c r="L22">
         <v>0.9630208111112546</v>
       </c>
       <c r="M22">
-        <v>0.9733847583949824</v>
+        <v>0.9733847583949822</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9513909045993806</v>
+        <v>0.9513909045993805</v>
       </c>
       <c r="D23">
         <v>0.9819076448264733</v>
       </c>
       <c r="E23">
-        <v>0.9487180765213316</v>
+        <v>0.9487180765213314</v>
       </c>
       <c r="F23">
-        <v>0.9599082157023594</v>
+        <v>0.959908215702359</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.028226398934179</v>
       </c>
       <c r="J23">
-        <v>0.9837060890371848</v>
+        <v>0.9837060890371847</v>
       </c>
       <c r="K23">
-        <v>0.9975248944666576</v>
+        <v>0.9975248944666575</v>
       </c>
       <c r="L23">
-        <v>0.9650405420028694</v>
+        <v>0.9650405420028692</v>
       </c>
       <c r="M23">
-        <v>0.9759856821595384</v>
+        <v>0.9759856821595381</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9631974636387419</v>
+        <v>0.9631974636387427</v>
       </c>
       <c r="D24">
-        <v>0.9904796889119243</v>
+        <v>0.9904796889119247</v>
       </c>
       <c r="E24">
-        <v>0.9579224409948807</v>
+        <v>0.957922440994881</v>
       </c>
       <c r="F24">
-        <v>0.9713062914459576</v>
+        <v>0.9713062914459581</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.032235554742749</v>
       </c>
       <c r="J24">
-        <v>0.9921896896215013</v>
+        <v>0.9921896896215022</v>
       </c>
       <c r="K24">
-        <v>1.004676080372923</v>
+        <v>1.004676080372924</v>
       </c>
       <c r="L24">
-        <v>0.9727311022688421</v>
+        <v>0.9727311022688424</v>
       </c>
       <c r="M24">
-        <v>0.9858567617551424</v>
+        <v>0.9858567617551428</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9760508267400838</v>
+        <v>0.9760508267400845</v>
       </c>
       <c r="D25">
-        <v>0.9998372578353323</v>
+        <v>0.9998372578353328</v>
       </c>
       <c r="E25">
-        <v>0.968059521679059</v>
+        <v>0.9680595216790597</v>
       </c>
       <c r="F25">
-        <v>0.9837791745966911</v>
+        <v>0.9837791745966917</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036538939714426</v>
+        <v>1.036538939714427</v>
       </c>
       <c r="J25">
         <v>1.001411959167712</v>
       </c>
       <c r="K25">
-        <v>1.012438100691675</v>
+        <v>1.012438100691676</v>
       </c>
       <c r="L25">
-        <v>0.9811747719646363</v>
+        <v>0.981174771964637</v>
       </c>
       <c r="M25">
-        <v>0.9966346277102978</v>
+        <v>0.9966346277102985</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9857156963096719</v>
+        <v>0.9857156963096735</v>
       </c>
       <c r="D2">
-        <v>1.006887480485488</v>
+        <v>1.006887480485489</v>
       </c>
       <c r="E2">
-        <v>0.9757650437313369</v>
+        <v>0.9757650437313373</v>
       </c>
       <c r="F2">
-        <v>0.9932035722693452</v>
+        <v>0.9932035722693461</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039722234348724</v>
+        <v>1.039722234348725</v>
       </c>
       <c r="J2">
-        <v>1.008332207188377</v>
+        <v>1.008332207188378</v>
       </c>
       <c r="K2">
-        <v>1.018251688522867</v>
+        <v>1.018251688522868</v>
       </c>
       <c r="L2">
-        <v>0.9875726638885629</v>
+        <v>0.9875726638885632</v>
       </c>
       <c r="M2">
-        <v>1.004758411286487</v>
+        <v>1.004758411286488</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9924332934580471</v>
+        <v>0.9924332934580485</v>
       </c>
       <c r="D3">
-        <v>1.011793090000553</v>
+        <v>1.011793090000554</v>
       </c>
       <c r="E3">
-        <v>0.9811647370823749</v>
+        <v>0.9811647370823755</v>
       </c>
       <c r="F3">
-        <v>0.9997780971806253</v>
+        <v>0.9997780971806266</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041902763936429</v>
+        <v>1.04190276393643</v>
       </c>
       <c r="J3">
-        <v>1.013132381723559</v>
+        <v>1.01313238172356</v>
       </c>
       <c r="K3">
-        <v>1.022277267398339</v>
+        <v>1.02227726739834</v>
       </c>
       <c r="L3">
-        <v>0.9920444296574211</v>
+        <v>0.9920444296574216</v>
       </c>
       <c r="M3">
-        <v>1.010413818082324</v>
+        <v>1.010413818082325</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9966528683215832</v>
+        <v>0.9966528683215824</v>
       </c>
       <c r="D4">
-        <v>1.014876149987682</v>
+        <v>1.014876149987681</v>
       </c>
       <c r="E4">
-        <v>0.9845756687637461</v>
+        <v>0.9845756687637457</v>
       </c>
       <c r="F4">
-        <v>1.003918293360084</v>
+        <v>1.003918293360083</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.043257108184537</v>
       </c>
       <c r="J4">
-        <v>1.016142583338662</v>
+        <v>1.016142583338661</v>
       </c>
       <c r="K4">
-        <v>1.024798288150597</v>
+        <v>1.024798288150596</v>
       </c>
       <c r="L4">
-        <v>0.994863887010111</v>
+        <v>0.9948638870101104</v>
       </c>
       <c r="M4">
         <v>1.013969656955682</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9983979092789773</v>
+        <v>0.9983979092789766</v>
       </c>
       <c r="D5">
-        <v>1.016151463719131</v>
+        <v>1.01615146371913</v>
       </c>
       <c r="E5">
-        <v>0.985990740007733</v>
+        <v>0.9859907400077329</v>
       </c>
       <c r="F5">
-        <v>1.005632939118495</v>
+        <v>1.005632939118494</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043813455593866</v>
+        <v>1.043813455593865</v>
       </c>
       <c r="J5">
-        <v>1.017386222030291</v>
+        <v>1.01738622203029</v>
       </c>
       <c r="K5">
-        <v>1.025838972885659</v>
+        <v>1.025838972885658</v>
       </c>
       <c r="L5">
-        <v>0.9960323092139427</v>
+        <v>0.9960323092139426</v>
       </c>
       <c r="M5">
-        <v>1.015440945014871</v>
+        <v>1.01544094501487</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,7 +582,7 @@
         <v>0.986227256857696</v>
       </c>
       <c r="F6">
-        <v>1.005919355776676</v>
+        <v>1.005919355776675</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>0.9962275264563208</v>
       </c>
       <c r="M6">
-        <v>1.015686631168686</v>
+        <v>1.015686631168685</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9966762970870739</v>
+        <v>0.9966762970870741</v>
       </c>
       <c r="D7">
-        <v>1.014893271238297</v>
+        <v>1.014893271238298</v>
       </c>
       <c r="E7">
-        <v>0.9845946499567886</v>
+        <v>0.9845946499567885</v>
       </c>
       <c r="F7">
         <v>1.00394130452121</v>
@@ -626,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043264592607432</v>
+        <v>1.043264592607433</v>
       </c>
       <c r="J7">
-        <v>1.016159285373286</v>
+        <v>1.016159285373287</v>
       </c>
       <c r="K7">
         <v>1.024812267936148</v>
@@ -638,7 +638,7 @@
         <v>0.9948795647563721</v>
       </c>
       <c r="M7">
-        <v>1.013989407522331</v>
+        <v>1.013989407522332</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,10 +655,10 @@
         <v>1.008564881912209</v>
       </c>
       <c r="E8">
-        <v>0.9776077089607008</v>
+        <v>0.9776077089607011</v>
       </c>
       <c r="F8">
-        <v>0.9954499313850648</v>
+        <v>0.9954499313850649</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>1.019630072942624</v>
       </c>
       <c r="L8">
-        <v>0.9890997912331563</v>
+        <v>0.9890997912331566</v>
       </c>
       <c r="M8">
         <v>1.006691891047637</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9716960436308477</v>
+        <v>0.9716960436308485</v>
       </c>
       <c r="D9">
-        <v>0.9966642332950164</v>
+        <v>0.9966642332950167</v>
       </c>
       <c r="E9">
-        <v>0.9646111491626522</v>
+        <v>0.9646111491626523</v>
       </c>
       <c r="F9">
-        <v>0.9795456722577257</v>
+        <v>0.9795456722577259</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035089074499609</v>
       </c>
       <c r="J9">
-        <v>0.9982894623722647</v>
+        <v>0.9982894623722652</v>
       </c>
       <c r="K9">
-        <v>1.009811663829083</v>
+        <v>1.009811663829084</v>
       </c>
       <c r="L9">
-        <v>0.9783057245731802</v>
+        <v>0.9783057245731804</v>
       </c>
       <c r="M9">
-        <v>0.9929795595041863</v>
+        <v>0.9929795595041865</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9599887868233584</v>
+        <v>0.959988786823357</v>
       </c>
       <c r="D10">
-        <v>0.9881476417280725</v>
+        <v>0.9881476417280711</v>
       </c>
       <c r="E10">
-        <v>0.9554109480318117</v>
+        <v>0.9554109480318116</v>
       </c>
       <c r="F10">
-        <v>0.968203104115345</v>
+        <v>0.9682031041153438</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.031150755615802</v>
       </c>
       <c r="J10">
-        <v>0.9898850024300725</v>
+        <v>0.9898850024300712</v>
       </c>
       <c r="K10">
-        <v>1.002734243216633</v>
+        <v>1.002734243216632</v>
       </c>
       <c r="L10">
-        <v>0.9706348079440609</v>
+        <v>0.9706348079440608</v>
       </c>
       <c r="M10">
-        <v>0.9831712158790555</v>
+        <v>0.9831712158790544</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -766,31 +766,31 @@
         <v>0.9546910678815591</v>
       </c>
       <c r="D11">
-        <v>0.9843011759351639</v>
+        <v>0.9843011759351643</v>
       </c>
       <c r="E11">
         <v>0.9512807177145882</v>
       </c>
       <c r="F11">
-        <v>0.9630885943161733</v>
+        <v>0.9630885943161736</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029351720279635</v>
+        <v>1.029351720279636</v>
       </c>
       <c r="J11">
-        <v>0.9860782596320469</v>
+        <v>0.9860782596320472</v>
       </c>
       <c r="K11">
-        <v>0.9995253485710632</v>
+        <v>0.9995253485710635</v>
       </c>
       <c r="L11">
         <v>0.9671838557930994</v>
       </c>
       <c r="M11">
-        <v>0.9787418725906843</v>
+        <v>0.9787418725906847</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9526858405284878</v>
+        <v>0.9526858405284864</v>
       </c>
       <c r="D12">
-        <v>0.9828465868236179</v>
+        <v>0.9828465868236167</v>
       </c>
       <c r="E12">
-        <v>0.9497226856310367</v>
+        <v>0.9497226856310368</v>
       </c>
       <c r="F12">
-        <v>0.9611556338980219</v>
+        <v>0.9611556338980214</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02866836126299</v>
+        <v>1.028668361262989</v>
       </c>
       <c r="J12">
-        <v>0.9846369567386722</v>
+        <v>0.984636956738671</v>
       </c>
       <c r="K12">
-        <v>0.9983099668060353</v>
+        <v>0.998309966806034</v>
       </c>
       <c r="L12">
-        <v>0.9658809572902465</v>
+        <v>0.9658809572902466</v>
       </c>
       <c r="M12">
-        <v>0.9770668886820157</v>
+        <v>0.9770668886820152</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9531177159923918</v>
+        <v>0.9531177159923898</v>
       </c>
       <c r="D13">
-        <v>0.9831598051282799</v>
+        <v>0.9831598051282783</v>
       </c>
       <c r="E13">
-        <v>0.9500580019026031</v>
+        <v>0.9500580019026021</v>
       </c>
       <c r="F13">
-        <v>0.9615718097747054</v>
+        <v>0.9615718097747038</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028815646215154</v>
+        <v>1.028815646215153</v>
       </c>
       <c r="J13">
-        <v>0.9849473940761713</v>
+        <v>0.9849473940761694</v>
       </c>
       <c r="K13">
-        <v>0.9985717625629893</v>
+        <v>0.9985717625629877</v>
       </c>
       <c r="L13">
-        <v>0.966161414605306</v>
+        <v>0.9661614146053054</v>
       </c>
       <c r="M13">
-        <v>0.9774275644648791</v>
+        <v>0.9774275644648778</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9545260978311072</v>
+        <v>0.9545260978311083</v>
       </c>
       <c r="D14">
-        <v>0.9841814786738572</v>
+        <v>0.9841814786738582</v>
       </c>
       <c r="E14">
-        <v>0.9511524290566512</v>
+        <v>0.9511524290566519</v>
       </c>
       <c r="F14">
-        <v>0.9629295092668844</v>
+        <v>0.9629295092668851</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.029295548443589</v>
       </c>
       <c r="J14">
-        <v>0.9859596914705592</v>
+        <v>0.9859596914705602</v>
       </c>
       <c r="K14">
-        <v>0.9994253742394708</v>
+        <v>0.9994253742394718</v>
       </c>
       <c r="L14">
-        <v>0.9670765974845605</v>
+        <v>0.9670765974845613</v>
       </c>
       <c r="M14">
-        <v>0.9786040389240768</v>
+        <v>0.9786040389240777</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -921,7 +921,7 @@
         <v>0.9848074776133535</v>
       </c>
       <c r="E15">
-        <v>0.9518235176300468</v>
+        <v>0.9518235176300465</v>
       </c>
       <c r="F15">
         <v>0.9637615469278823</v>
@@ -933,13 +933,13 @@
         <v>1.029589195705307</v>
       </c>
       <c r="J15">
-        <v>0.9865797142352715</v>
+        <v>0.9865797142352714</v>
       </c>
       <c r="K15">
-        <v>0.9999481478059122</v>
+        <v>0.999948147805912</v>
       </c>
       <c r="L15">
-        <v>0.9676376293570911</v>
+        <v>0.967637629357091</v>
       </c>
       <c r="M15">
         <v>0.9793248893807962</v>
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9603353105641397</v>
+        <v>0.9603353105641395</v>
       </c>
       <c r="D16">
-        <v>0.9883994100359812</v>
+        <v>0.9883994100359808</v>
       </c>
       <c r="E16">
-        <v>0.9556818165116301</v>
+        <v>0.9556818165116299</v>
       </c>
       <c r="F16">
-        <v>0.9685380357975308</v>
+        <v>0.9685380357975304</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031268091424139</v>
+        <v>1.031268091424138</v>
       </c>
       <c r="J16">
-        <v>0.990133936753216</v>
+        <v>0.9901339367532157</v>
       </c>
       <c r="K16">
         <v>1.002944019780037</v>
       </c>
       <c r="L16">
-        <v>0.9708609758988791</v>
+        <v>0.970860975898879</v>
       </c>
       <c r="M16">
-        <v>0.983461142803444</v>
+        <v>0.9834611428034437</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9633749088648315</v>
+        <v>0.9633749088648302</v>
       </c>
       <c r="D17">
-        <v>0.9906087045731473</v>
+        <v>0.9906087045731462</v>
       </c>
       <c r="E17">
-        <v>0.9580615508004729</v>
+        <v>0.9580615508004725</v>
       </c>
       <c r="F17">
-        <v>0.9714780241208963</v>
+        <v>0.9714780241208946</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.032295433432905</v>
       </c>
       <c r="J17">
-        <v>0.9923171187698814</v>
+        <v>0.9923171187698799</v>
       </c>
       <c r="K17">
-        <v>1.00478342559127</v>
+        <v>1.004783425591269</v>
       </c>
       <c r="L17">
-        <v>0.9728471659207103</v>
+        <v>0.9728471659207099</v>
       </c>
       <c r="M17">
-        <v>0.9860053375380889</v>
+        <v>0.9860053375380875</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9651260468487812</v>
+        <v>0.9651260468487817</v>
       </c>
       <c r="D18">
-        <v>0.9918821806663853</v>
+        <v>0.9918821806663856</v>
       </c>
       <c r="E18">
-        <v>0.959435613388292</v>
+        <v>0.9594356133882919</v>
       </c>
       <c r="F18">
-        <v>0.9731734709324774</v>
+        <v>0.9731734709324773</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.032885698614447</v>
       </c>
       <c r="J18">
-        <v>0.9935745224626971</v>
+        <v>0.9935745224626976</v>
       </c>
       <c r="K18">
         <v>1.00584252509346</v>
       </c>
       <c r="L18">
-        <v>0.9739933111202298</v>
+        <v>0.9739933111202296</v>
       </c>
       <c r="M18">
         <v>0.9874719097545056</v>
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9657195287113686</v>
+        <v>0.9657195287113681</v>
       </c>
       <c r="D19">
-        <v>0.9923138870693115</v>
+        <v>0.9923138870693111</v>
       </c>
       <c r="E19">
-        <v>0.9599018127007733</v>
+        <v>0.9599018127007727</v>
       </c>
       <c r="F19">
         <v>0.9737483606750795</v>
@@ -1085,16 +1085,16 @@
         <v>1.033085472499076</v>
       </c>
       <c r="J19">
-        <v>0.994000609853443</v>
+        <v>0.9940006098534426</v>
       </c>
       <c r="K19">
-        <v>1.006201361215059</v>
+        <v>1.006201361215058</v>
       </c>
       <c r="L19">
-        <v>0.9743820658045887</v>
+        <v>0.9743820658045883</v>
       </c>
       <c r="M19">
-        <v>0.9879690860873871</v>
+        <v>0.987969086087387</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9630510656784229</v>
+        <v>0.963051065678423</v>
       </c>
       <c r="D20">
-        <v>0.9903732507281984</v>
+        <v>0.9903732507281987</v>
       </c>
       <c r="E20">
-        <v>0.9578076883809942</v>
+        <v>0.9578076883809938</v>
       </c>
       <c r="F20">
         <v>0.9711646161061107</v>
@@ -1123,13 +1123,13 @@
         <v>1.032186143856936</v>
       </c>
       <c r="J20">
-        <v>0.9920845545416916</v>
+        <v>0.9920845545416919</v>
       </c>
       <c r="K20">
         <v>1.004587513742866</v>
       </c>
       <c r="L20">
-        <v>0.9726353567090538</v>
+        <v>0.9726353567090534</v>
       </c>
       <c r="M20">
         <v>0.9857341867431001</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9541124243080307</v>
+        <v>0.9541124243080296</v>
       </c>
       <c r="D21">
-        <v>0.9838813518298207</v>
+        <v>0.9838813518298193</v>
       </c>
       <c r="E21">
-        <v>0.950830822891187</v>
+        <v>0.9508308228911863</v>
       </c>
       <c r="F21">
-        <v>0.962530640432148</v>
+        <v>0.9625306404321469</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029154655470997</v>
+        <v>1.029154655470996</v>
       </c>
       <c r="J21">
-        <v>0.9856623674582027</v>
+        <v>0.9856623674582015</v>
       </c>
       <c r="K21">
-        <v>0.9991746696834217</v>
+        <v>0.9991746696834205</v>
       </c>
       <c r="L21">
-        <v>0.9668076942964433</v>
+        <v>0.9668076942964425</v>
       </c>
       <c r="M21">
-        <v>0.9782584374325649</v>
+        <v>0.9782584374325638</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9482740171816335</v>
+        <v>0.9482740171816341</v>
       </c>
       <c r="D22">
-        <v>0.9796489599973924</v>
+        <v>0.9796489599973927</v>
       </c>
       <c r="E22">
-        <v>0.9463049318418678</v>
+        <v>0.9463049318418677</v>
       </c>
       <c r="F22">
-        <v>0.9569084291775121</v>
+        <v>0.9569084291775123</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027160564856475</v>
       </c>
       <c r="J22">
-        <v>0.9814652223292457</v>
+        <v>0.981465222329246</v>
       </c>
       <c r="K22">
-        <v>0.9956346503849188</v>
+        <v>0.9956346503849192</v>
       </c>
       <c r="L22">
         <v>0.9630208111112546</v>
       </c>
       <c r="M22">
-        <v>0.9733847583949822</v>
+        <v>0.9733847583949824</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9513909045993805</v>
+        <v>0.9513909045993806</v>
       </c>
       <c r="D23">
         <v>0.9819076448264733</v>
       </c>
       <c r="E23">
-        <v>0.9487180765213314</v>
+        <v>0.9487180765213316</v>
       </c>
       <c r="F23">
-        <v>0.959908215702359</v>
+        <v>0.9599082157023594</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.028226398934179</v>
       </c>
       <c r="J23">
-        <v>0.9837060890371847</v>
+        <v>0.9837060890371848</v>
       </c>
       <c r="K23">
-        <v>0.9975248944666575</v>
+        <v>0.9975248944666576</v>
       </c>
       <c r="L23">
-        <v>0.9650405420028692</v>
+        <v>0.9650405420028694</v>
       </c>
       <c r="M23">
-        <v>0.9759856821595381</v>
+        <v>0.9759856821595384</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9631974636387427</v>
+        <v>0.9631974636387419</v>
       </c>
       <c r="D24">
-        <v>0.9904796889119247</v>
+        <v>0.9904796889119243</v>
       </c>
       <c r="E24">
-        <v>0.957922440994881</v>
+        <v>0.9579224409948807</v>
       </c>
       <c r="F24">
-        <v>0.9713062914459581</v>
+        <v>0.9713062914459576</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.032235554742749</v>
       </c>
       <c r="J24">
-        <v>0.9921896896215022</v>
+        <v>0.9921896896215013</v>
       </c>
       <c r="K24">
-        <v>1.004676080372924</v>
+        <v>1.004676080372923</v>
       </c>
       <c r="L24">
-        <v>0.9727311022688424</v>
+        <v>0.9727311022688421</v>
       </c>
       <c r="M24">
-        <v>0.9858567617551428</v>
+        <v>0.9858567617551424</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9760508267400845</v>
+        <v>0.9760508267400838</v>
       </c>
       <c r="D25">
-        <v>0.9998372578353328</v>
+        <v>0.9998372578353323</v>
       </c>
       <c r="E25">
-        <v>0.9680595216790597</v>
+        <v>0.968059521679059</v>
       </c>
       <c r="F25">
-        <v>0.9837791745966917</v>
+        <v>0.9837791745966911</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036538939714427</v>
+        <v>1.036538939714426</v>
       </c>
       <c r="J25">
         <v>1.001411959167712</v>
       </c>
       <c r="K25">
-        <v>1.012438100691676</v>
+        <v>1.012438100691675</v>
       </c>
       <c r="L25">
-        <v>0.981174771964637</v>
+        <v>0.9811747719646363</v>
       </c>
       <c r="M25">
-        <v>0.9966346277102985</v>
+        <v>0.9966346277102978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9857156963096735</v>
+        <v>0.9857248476029933</v>
       </c>
       <c r="D2">
-        <v>1.006887480485489</v>
+        <v>1.006894762052225</v>
       </c>
       <c r="E2">
-        <v>0.9757650437313373</v>
+        <v>0.9757696216892002</v>
       </c>
       <c r="F2">
-        <v>0.9932035722693461</v>
+        <v>0.9932097506320299</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039722234348725</v>
+        <v>1.039726024434634</v>
       </c>
       <c r="J2">
-        <v>1.008332207188378</v>
+        <v>1.008341073697828</v>
       </c>
       <c r="K2">
-        <v>1.018251688522868</v>
+        <v>1.01825887038726</v>
       </c>
       <c r="L2">
-        <v>0.9875726638885632</v>
+        <v>0.9875771739796676</v>
       </c>
       <c r="M2">
-        <v>1.004758411286488</v>
+        <v>1.004764502079632</v>
+      </c>
+      <c r="N2">
+        <v>1.007716308191665</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9924332934580485</v>
+        <v>0.9924386646205998</v>
       </c>
       <c r="D3">
-        <v>1.011793090000554</v>
+        <v>1.011797476334446</v>
       </c>
       <c r="E3">
-        <v>0.9811647370823755</v>
+        <v>0.9811679847097243</v>
       </c>
       <c r="F3">
-        <v>0.9997780971806266</v>
+        <v>0.9997817974735702</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04190276393643</v>
+        <v>1.041905038158904</v>
       </c>
       <c r="J3">
-        <v>1.01313238172356</v>
+        <v>1.013137603399962</v>
       </c>
       <c r="K3">
-        <v>1.02227726739834</v>
+        <v>1.02228159922673</v>
       </c>
       <c r="L3">
-        <v>0.9920444296574216</v>
+        <v>0.9920476337026684</v>
       </c>
       <c r="M3">
-        <v>1.010413818082325</v>
+        <v>1.010417471003278</v>
+      </c>
+      <c r="N3">
+        <v>1.011004560952215</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9966528683215824</v>
+        <v>0.9966559015777401</v>
       </c>
       <c r="D4">
-        <v>1.014876149987681</v>
+        <v>1.014878741467217</v>
       </c>
       <c r="E4">
-        <v>0.9845756687637457</v>
+        <v>0.9845781015572991</v>
       </c>
       <c r="F4">
-        <v>1.003918293360083</v>
+        <v>1.003920465736619</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043257108184537</v>
+        <v>1.04325844132097</v>
       </c>
       <c r="J4">
-        <v>1.016142583338661</v>
+        <v>1.016145538297025</v>
       </c>
       <c r="K4">
-        <v>1.024798288150596</v>
+        <v>1.024800849477084</v>
       </c>
       <c r="L4">
-        <v>0.9948638870101104</v>
+        <v>0.9948662892840721</v>
       </c>
       <c r="M4">
-        <v>1.013969656955682</v>
+        <v>1.013971803366833</v>
+      </c>
+      <c r="N4">
+        <v>1.013065614862819</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9983979092789766</v>
+        <v>0.9983999834388081</v>
       </c>
       <c r="D5">
-        <v>1.01615146371913</v>
+        <v>1.016153317986398</v>
       </c>
       <c r="E5">
-        <v>0.9859907400077329</v>
+        <v>0.9859928403628074</v>
       </c>
       <c r="F5">
-        <v>1.005632939118494</v>
+        <v>1.005634485721975</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043813455593865</v>
+        <v>1.043814401869811</v>
       </c>
       <c r="J5">
-        <v>1.01738622203029</v>
+        <v>1.017388244358457</v>
       </c>
       <c r="K5">
-        <v>1.025838972885658</v>
+        <v>1.025840806182136</v>
       </c>
       <c r="L5">
-        <v>0.9960323092139426</v>
+        <v>0.9960343839757838</v>
       </c>
       <c r="M5">
-        <v>1.01544094501487</v>
+        <v>1.015442473671989</v>
+      </c>
+      <c r="N5">
+        <v>1.013916866394953</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9986892599517826</v>
+        <v>0.9986911744110126</v>
       </c>
       <c r="D6">
-        <v>1.016364402946193</v>
+        <v>1.016366134409645</v>
       </c>
       <c r="E6">
-        <v>0.986227256857696</v>
+        <v>0.9862293019641054</v>
       </c>
       <c r="F6">
-        <v>1.005919355776675</v>
+        <v>1.005920798240044</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043906120044282</v>
+        <v>1.043907001858636</v>
       </c>
       <c r="J6">
-        <v>1.017593783329522</v>
+        <v>1.017595650210051</v>
       </c>
       <c r="K6">
-        <v>1.026012610452278</v>
+        <v>1.02601432242792</v>
       </c>
       <c r="L6">
-        <v>0.9962275264563208</v>
+        <v>0.9962295467653843</v>
       </c>
       <c r="M6">
-        <v>1.015686631168685</v>
+        <v>1.015688056977895</v>
+      </c>
+      <c r="N6">
+        <v>1.014058923600249</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9966762970870741</v>
+        <v>0.9966793174370085</v>
       </c>
       <c r="D7">
-        <v>1.014893271238298</v>
+        <v>1.014895852800833</v>
       </c>
       <c r="E7">
-        <v>0.9845946499567885</v>
+        <v>0.9845970782696306</v>
       </c>
       <c r="F7">
-        <v>1.00394130452121</v>
+        <v>1.003943468472947</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043264592607433</v>
+        <v>1.043265920541082</v>
       </c>
       <c r="J7">
-        <v>1.016159285373287</v>
+        <v>1.016162227792112</v>
       </c>
       <c r="K7">
-        <v>1.024812267936148</v>
+        <v>1.024814819472334</v>
       </c>
       <c r="L7">
-        <v>0.9948795647563721</v>
+        <v>0.9948819626175834</v>
       </c>
       <c r="M7">
-        <v>1.013989407522332</v>
+        <v>1.013991545619537</v>
+      </c>
+      <c r="N7">
+        <v>1.013077048172045</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9880132570795854</v>
+        <v>0.9880211071293252</v>
       </c>
       <c r="D8">
-        <v>1.008564881912209</v>
+        <v>1.008571167826699</v>
       </c>
       <c r="E8">
-        <v>0.9776077089607011</v>
+        <v>0.9776118272393043</v>
       </c>
       <c r="F8">
-        <v>0.9954499313850649</v>
+        <v>0.9954552556538211</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040471208773502</v>
+        <v>1.040474477852241</v>
       </c>
       <c r="J8">
-        <v>1.00997497675295</v>
+        <v>1.009982591423133</v>
       </c>
       <c r="K8">
-        <v>1.019630072942624</v>
+        <v>1.019636275516304</v>
       </c>
       <c r="L8">
-        <v>0.9890997912331566</v>
+        <v>0.9891038504457538</v>
       </c>
       <c r="M8">
-        <v>1.006691891047637</v>
+        <v>1.006697142363516</v>
+      </c>
+      <c r="N8">
+        <v>1.008841859100702</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9716960436308485</v>
+        <v>0.971713341171066</v>
       </c>
       <c r="D9">
-        <v>0.9966642332950167</v>
+        <v>0.9966777232283321</v>
       </c>
       <c r="E9">
-        <v>0.9646111491626523</v>
+        <v>0.9646186434464215</v>
       </c>
       <c r="F9">
-        <v>0.9795456722577259</v>
+        <v>0.9795572228530631</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035089074499609</v>
+        <v>1.035096107228456</v>
       </c>
       <c r="J9">
-        <v>0.9982894623722652</v>
+        <v>0.998306097776356</v>
       </c>
       <c r="K9">
-        <v>1.009811663829084</v>
+        <v>1.009824933014179</v>
       </c>
       <c r="L9">
-        <v>0.9783057245731804</v>
+        <v>0.9783130854136355</v>
       </c>
       <c r="M9">
-        <v>0.9929795595041865</v>
+        <v>0.9929909124541307</v>
+      </c>
+      <c r="N9">
+        <v>1.000831545986481</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.959988786823357</v>
+        <v>0.960013191757326</v>
       </c>
       <c r="D10">
-        <v>0.9881476417280711</v>
+        <v>0.9881665111480115</v>
       </c>
       <c r="E10">
-        <v>0.9554109480318116</v>
+        <v>0.9554210361674219</v>
       </c>
       <c r="F10">
-        <v>0.9682031041153438</v>
+        <v>0.9682193771077946</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031150755615802</v>
+        <v>1.031160590771621</v>
       </c>
       <c r="J10">
-        <v>0.9898850024300712</v>
+        <v>0.9899083197265184</v>
       </c>
       <c r="K10">
-        <v>1.002734243216632</v>
+        <v>1.002752761205118</v>
       </c>
       <c r="L10">
-        <v>0.9706348079440608</v>
+        <v>0.9706446908354424</v>
       </c>
       <c r="M10">
-        <v>0.9831712158790544</v>
+        <v>0.9831871691817425</v>
+      </c>
+      <c r="N10">
+        <v>0.9950658981932173</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9546910678815591</v>
+        <v>0.9547187920189564</v>
       </c>
       <c r="D11">
-        <v>0.9843011759351643</v>
+        <v>0.9843225450814268</v>
       </c>
       <c r="E11">
-        <v>0.9512807177145882</v>
+        <v>0.9512920314263905</v>
       </c>
       <c r="F11">
-        <v>0.9630885943161736</v>
+        <v>0.9631070837249763</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029351720279636</v>
+        <v>1.029362855708094</v>
       </c>
       <c r="J11">
-        <v>0.9860782596320472</v>
+        <v>0.986104666754836</v>
       </c>
       <c r="K11">
-        <v>0.9995253485710635</v>
+        <v>0.9995462976848497</v>
       </c>
       <c r="L11">
-        <v>0.9671838557930994</v>
+        <v>0.9671949261640683</v>
       </c>
       <c r="M11">
-        <v>0.9787418725906847</v>
+        <v>0.9787599771031614</v>
+      </c>
+      <c r="N11">
+        <v>0.9924535253975131</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9526858405284864</v>
+        <v>0.9527148390210585</v>
       </c>
       <c r="D12">
-        <v>0.9828465868236167</v>
+        <v>0.9828689135220355</v>
       </c>
       <c r="E12">
-        <v>0.9497226856310368</v>
+        <v>0.9497344721425576</v>
       </c>
       <c r="F12">
-        <v>0.9611556338980214</v>
+        <v>0.9611749760957242</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028668361262989</v>
+        <v>1.028679994480436</v>
       </c>
       <c r="J12">
-        <v>0.984636956738671</v>
+        <v>0.9846645449902851</v>
       </c>
       <c r="K12">
-        <v>0.998309966806034</v>
+        <v>0.9983318459007676</v>
       </c>
       <c r="L12">
-        <v>0.9658809572902466</v>
+        <v>0.9658924850744989</v>
       </c>
       <c r="M12">
-        <v>0.9770668886820152</v>
+        <v>0.9770858195726309</v>
+      </c>
+      <c r="N12">
+        <v>0.9914643220714738</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9531177159923898</v>
+        <v>0.9531464391629609</v>
       </c>
       <c r="D13">
-        <v>0.9831598051282783</v>
+        <v>0.9831819250526</v>
       </c>
       <c r="E13">
-        <v>0.9500580019026021</v>
+        <v>0.9500696861628984</v>
       </c>
       <c r="F13">
-        <v>0.9615718097747038</v>
+        <v>0.9615909676435996</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028815646215153</v>
+        <v>1.028827171953344</v>
       </c>
       <c r="J13">
-        <v>0.9849473940761694</v>
+        <v>0.9849747273890248</v>
       </c>
       <c r="K13">
-        <v>0.9985717625629877</v>
+        <v>0.9985934408974275</v>
       </c>
       <c r="L13">
-        <v>0.9661614146053054</v>
+        <v>0.9661728434980108</v>
       </c>
       <c r="M13">
-        <v>0.9774275644648778</v>
+        <v>0.9774463167970647</v>
+      </c>
+      <c r="N13">
+        <v>0.9916773879070975</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9545260978311083</v>
+        <v>0.9545539264284298</v>
       </c>
       <c r="D14">
-        <v>0.9841814786738582</v>
+        <v>0.9842029263572262</v>
       </c>
       <c r="E14">
-        <v>0.9511524290566519</v>
+        <v>0.9511637814779157</v>
       </c>
       <c r="F14">
-        <v>0.9629295092668851</v>
+        <v>0.9629480685414806</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029295548443589</v>
+        <v>1.029306724706035</v>
       </c>
       <c r="J14">
-        <v>0.9859596914705602</v>
+        <v>0.9859861955189566</v>
       </c>
       <c r="K14">
-        <v>0.9994253742394718</v>
+        <v>0.9994463996557739</v>
       </c>
       <c r="L14">
-        <v>0.9670765974845613</v>
+        <v>0.9670877053195338</v>
       </c>
       <c r="M14">
-        <v>0.9786040389240777</v>
+        <v>0.9786222111660661</v>
+      </c>
+      <c r="N14">
+        <v>0.9923721511480819</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9553887905677952</v>
+        <v>0.9554160736515468</v>
       </c>
       <c r="D15">
-        <v>0.9848074776133535</v>
+        <v>0.9848285150681964</v>
       </c>
       <c r="E15">
-        <v>0.9518235176300465</v>
+        <v>0.9518346679936776</v>
       </c>
       <c r="F15">
-        <v>0.9637615469278823</v>
+        <v>0.9637797414224045</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029589195705307</v>
+        <v>1.029600158664602</v>
       </c>
       <c r="J15">
-        <v>0.9865797142352714</v>
+        <v>0.9866057119041045</v>
       </c>
       <c r="K15">
-        <v>0.999948147805912</v>
+        <v>0.9999687746128371</v>
       </c>
       <c r="L15">
-        <v>0.967637629357091</v>
+        <v>0.9676485416073444</v>
       </c>
       <c r="M15">
-        <v>0.9793248893807962</v>
+        <v>0.9793427079424003</v>
+      </c>
+      <c r="N15">
+        <v>0.9927976731914605</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9603353105641395</v>
+        <v>0.9603595007245497</v>
       </c>
       <c r="D16">
-        <v>0.9883994100359808</v>
+        <v>0.9884181174282202</v>
       </c>
       <c r="E16">
-        <v>0.9556818165116299</v>
+        <v>0.9556918256451843</v>
       </c>
       <c r="F16">
-        <v>0.9685380357975304</v>
+        <v>0.9685541656131058</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031268091424138</v>
+        <v>1.031277842258395</v>
       </c>
       <c r="J16">
-        <v>0.9901339367532157</v>
+        <v>0.9901570534474154</v>
       </c>
       <c r="K16">
-        <v>1.002944019780037</v>
+        <v>1.002962380017321</v>
       </c>
       <c r="L16">
-        <v>0.970860975898879</v>
+        <v>0.9708707821540764</v>
       </c>
       <c r="M16">
-        <v>0.9834611428034437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9834769569693991</v>
+      </c>
+      <c r="N16">
+        <v>0.9952367127725723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9633749088648302</v>
+        <v>0.9633972269810821</v>
       </c>
       <c r="D17">
-        <v>0.9906087045731462</v>
+        <v>0.9906259982523925</v>
       </c>
       <c r="E17">
-        <v>0.9580615508004725</v>
+        <v>0.9580708729155759</v>
       </c>
       <c r="F17">
-        <v>0.9714780241208946</v>
+        <v>0.9714929071972203</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032295433432905</v>
+        <v>1.032304448332895</v>
       </c>
       <c r="J17">
-        <v>0.9923171187698799</v>
+        <v>0.9923384834811669</v>
       </c>
       <c r="K17">
-        <v>1.004783425591269</v>
+        <v>1.004800408540371</v>
       </c>
       <c r="L17">
-        <v>0.9728471659207099</v>
+        <v>0.9728563052647482</v>
       </c>
       <c r="M17">
-        <v>0.9860053375380875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9860199392540574</v>
+      </c>
+      <c r="N17">
+        <v>0.9967346807010259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9651260468487817</v>
+        <v>0.9651472959583857</v>
       </c>
       <c r="D18">
-        <v>0.9918821806663856</v>
+        <v>0.9918986659285763</v>
       </c>
       <c r="E18">
-        <v>0.9594356133882919</v>
+        <v>0.9594445444937292</v>
       </c>
       <c r="F18">
-        <v>0.9731734709324773</v>
+        <v>0.9731876430787161</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032885698614447</v>
+        <v>1.032894292497885</v>
       </c>
       <c r="J18">
-        <v>0.9935745224626976</v>
+        <v>0.9935948839383255</v>
       </c>
       <c r="K18">
-        <v>1.00584252509346</v>
+        <v>1.005858719733921</v>
       </c>
       <c r="L18">
-        <v>0.9739933111202296</v>
+        <v>0.974002070520863</v>
       </c>
       <c r="M18">
-        <v>0.9874719097545056</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.987485819373774</v>
+      </c>
+      <c r="N18">
+        <v>0.9975973531052033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9657195287113681</v>
+        <v>0.9657404170634645</v>
       </c>
       <c r="D19">
-        <v>0.9923138870693111</v>
+        <v>0.9923300993306005</v>
       </c>
       <c r="E19">
-        <v>0.9599018127007727</v>
+        <v>0.9599106120699222</v>
       </c>
       <c r="F19">
-        <v>0.9737483606750795</v>
+        <v>0.9737622930693459</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033085472499076</v>
+        <v>1.033093924175563</v>
       </c>
       <c r="J19">
-        <v>0.9940006098534426</v>
+        <v>0.9940206323093868</v>
       </c>
       <c r="K19">
-        <v>1.006201361215058</v>
+        <v>1.006217289525984</v>
       </c>
       <c r="L19">
-        <v>0.9743820658045883</v>
+        <v>0.9743906971349787</v>
       </c>
       <c r="M19">
-        <v>0.987969086087387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9879827621875361</v>
+      </c>
+      <c r="N19">
+        <v>0.9978896662569484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.963051065678423</v>
+        <v>0.9630735822416423</v>
       </c>
       <c r="D20">
-        <v>0.9903732507281987</v>
+        <v>0.9903906943890241</v>
       </c>
       <c r="E20">
-        <v>0.9578076883809938</v>
+        <v>0.9578170831870925</v>
       </c>
       <c r="F20">
-        <v>0.9711646161061107</v>
+        <v>0.9711796312377464</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032186143856936</v>
+        <v>1.032195236851399</v>
       </c>
       <c r="J20">
-        <v>0.9920845545416919</v>
+        <v>0.9921061052672362</v>
       </c>
       <c r="K20">
-        <v>1.004587513742866</v>
+        <v>1.004604642885073</v>
       </c>
       <c r="L20">
-        <v>0.9726353567090534</v>
+        <v>0.972644566656452</v>
       </c>
       <c r="M20">
-        <v>0.9857341867431001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9857489169583734</v>
+      </c>
+      <c r="N20">
+        <v>0.9965751175641907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9541124243080296</v>
+        <v>0.9541405151446319</v>
       </c>
       <c r="D21">
-        <v>0.9838813518298193</v>
+        <v>0.9839029966390969</v>
       </c>
       <c r="E21">
-        <v>0.9508308228911863</v>
+        <v>0.9508422725264455</v>
       </c>
       <c r="F21">
-        <v>0.9625306404321469</v>
+        <v>0.9625493751298483</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029154655470996</v>
+        <v>1.029165934220819</v>
       </c>
       <c r="J21">
-        <v>0.9856623674582015</v>
+        <v>0.9856891147468518</v>
       </c>
       <c r="K21">
-        <v>0.9991746696834205</v>
+        <v>0.9991958865957697</v>
       </c>
       <c r="L21">
-        <v>0.9668076942964425</v>
+        <v>0.9668188962063406</v>
       </c>
       <c r="M21">
-        <v>0.9782584374325638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9782767797121266</v>
+      </c>
+      <c r="N21">
+        <v>0.9921680936538747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9482740171816341</v>
+        <v>0.9483058558835122</v>
       </c>
       <c r="D22">
-        <v>0.9796489599973927</v>
+        <v>0.9796734164227239</v>
       </c>
       <c r="E22">
-        <v>0.9463049318418677</v>
+        <v>0.9463177764388472</v>
       </c>
       <c r="F22">
-        <v>0.9569084291775123</v>
+        <v>0.9569296756288947</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027160564856475</v>
+        <v>1.027173304669152</v>
       </c>
       <c r="J22">
-        <v>0.981465222329246</v>
+        <v>0.9814954327585107</v>
       </c>
       <c r="K22">
-        <v>0.9956346503849192</v>
+        <v>0.9956585953573466</v>
       </c>
       <c r="L22">
-        <v>0.9630208111112546</v>
+        <v>0.9630333611892726</v>
       </c>
       <c r="M22">
-        <v>0.9733847583949824</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9734055319495563</v>
+      </c>
+      <c r="N22">
+        <v>0.9892872964493747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9513909045993806</v>
+        <v>0.9514207314773164</v>
       </c>
       <c r="D23">
-        <v>0.9819076448264733</v>
+        <v>0.9819305933197552</v>
       </c>
       <c r="E23">
-        <v>0.9487180765213316</v>
+        <v>0.9487301710261185</v>
       </c>
       <c r="F23">
-        <v>0.9599082157023594</v>
+        <v>0.9599281127890076</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028226398934179</v>
+        <v>1.028238355310953</v>
       </c>
       <c r="J23">
-        <v>0.9837060890371848</v>
+        <v>0.9837344435424693</v>
       </c>
       <c r="K23">
-        <v>0.9975248944666576</v>
+        <v>0.9975473770735654</v>
       </c>
       <c r="L23">
-        <v>0.9650405420028694</v>
+        <v>0.9650523675543327</v>
       </c>
       <c r="M23">
-        <v>0.9759856821595384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9760051503636861</v>
+      </c>
+      <c r="N23">
+        <v>0.9908254147805143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9631974636387419</v>
+        <v>0.9632198904618562</v>
       </c>
       <c r="D24">
-        <v>0.9904796889119243</v>
+        <v>0.990497064752792</v>
       </c>
       <c r="E24">
-        <v>0.9579224409948807</v>
+        <v>0.9579318029251824</v>
       </c>
       <c r="F24">
-        <v>0.9713062914459576</v>
+        <v>0.9713212468574753</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032235554742749</v>
+        <v>1.032244612424344</v>
       </c>
       <c r="J24">
-        <v>0.9921896896215013</v>
+        <v>0.9922111562378155</v>
       </c>
       <c r="K24">
-        <v>1.004676080372923</v>
+        <v>1.004693143410515</v>
       </c>
       <c r="L24">
-        <v>0.9727311022688421</v>
+        <v>0.9727402802857883</v>
       </c>
       <c r="M24">
-        <v>0.9858567617551424</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9858714338606861</v>
+      </c>
+      <c r="N24">
+        <v>0.9966472513699354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9760508267400838</v>
+        <v>0.9760655540394325</v>
       </c>
       <c r="D25">
-        <v>0.9998372578353323</v>
+        <v>0.9998487937007424</v>
       </c>
       <c r="E25">
-        <v>0.968059521679059</v>
+        <v>0.9680660889301622</v>
       </c>
       <c r="F25">
-        <v>0.9837791745966911</v>
+        <v>0.9837890254880571</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036538939714426</v>
+        <v>1.036544952888252</v>
       </c>
       <c r="J25">
-        <v>1.001411959167712</v>
+        <v>1.001426156103317</v>
       </c>
       <c r="K25">
-        <v>1.012438100691675</v>
+        <v>1.012449457405777</v>
       </c>
       <c r="L25">
-        <v>0.9811747719646363</v>
+        <v>0.9811812284069155</v>
       </c>
       <c r="M25">
-        <v>0.9966346277102978</v>
+        <v>0.9966443191390858</v>
+      </c>
+      <c r="N25">
+        <v>1.002972808516088</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9857248476029933</v>
+        <v>1.022201689264273</v>
       </c>
       <c r="D2">
-        <v>1.006894762052225</v>
+        <v>1.040701694300235</v>
       </c>
       <c r="E2">
-        <v>0.9757696216892002</v>
+        <v>1.031768626074844</v>
       </c>
       <c r="F2">
-        <v>0.9932097506320299</v>
+        <v>1.043203650739091</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039726024434634</v>
+        <v>1.057285879343676</v>
       </c>
       <c r="J2">
-        <v>1.008341073697828</v>
+        <v>1.043738039712715</v>
       </c>
       <c r="K2">
-        <v>1.01825887038726</v>
+        <v>1.051621681861211</v>
       </c>
       <c r="L2">
-        <v>0.9875771739796676</v>
+        <v>1.042802428138688</v>
       </c>
       <c r="M2">
-        <v>1.004764502079632</v>
+        <v>1.054092197068532</v>
       </c>
       <c r="N2">
-        <v>1.007716308191665</v>
+        <v>1.045220267447533</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9924386646205998</v>
+        <v>1.029117880387229</v>
       </c>
       <c r="D3">
-        <v>1.011797476334446</v>
+        <v>1.046215606181299</v>
       </c>
       <c r="E3">
-        <v>0.9811679847097243</v>
+        <v>1.037497751060834</v>
       </c>
       <c r="F3">
-        <v>0.9997817974735702</v>
+        <v>1.049302188166491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041905038158904</v>
+        <v>1.059803087094197</v>
       </c>
       <c r="J3">
-        <v>1.013137603399962</v>
+        <v>1.048845053380914</v>
       </c>
       <c r="K3">
-        <v>1.02228159922673</v>
+        <v>1.056289422395951</v>
       </c>
       <c r="L3">
-        <v>0.9920476337026684</v>
+        <v>1.047672309924744</v>
       </c>
       <c r="M3">
-        <v>1.010417471003278</v>
+        <v>1.059340831005303</v>
       </c>
       <c r="N3">
-        <v>1.011004560952215</v>
+        <v>1.050334533660924</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9966559015777401</v>
+        <v>1.033468143550151</v>
       </c>
       <c r="D4">
-        <v>1.014878741467217</v>
+        <v>1.049686411829979</v>
       </c>
       <c r="E4">
-        <v>0.9845781015572991</v>
+        <v>1.04111305780478</v>
       </c>
       <c r="F4">
-        <v>1.003920465736619</v>
+        <v>1.053147049785663</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04325844132097</v>
+        <v>1.061372691690561</v>
       </c>
       <c r="J4">
-        <v>1.016145538297025</v>
+        <v>1.052052818405123</v>
       </c>
       <c r="K4">
-        <v>1.024800849477084</v>
+        <v>1.059219985670389</v>
       </c>
       <c r="L4">
-        <v>0.9948662892840721</v>
+        <v>1.050739368808042</v>
       </c>
       <c r="M4">
-        <v>1.013971803366833</v>
+        <v>1.062643713846633</v>
       </c>
       <c r="N4">
-        <v>1.013065614862819</v>
+        <v>1.053546854079403</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9983999834388081</v>
+        <v>1.035268606931199</v>
       </c>
       <c r="D5">
-        <v>1.016153317986398</v>
+        <v>1.051123414548883</v>
       </c>
       <c r="E5">
-        <v>0.9859928403628074</v>
+        <v>1.042612034265146</v>
       </c>
       <c r="F5">
-        <v>1.005634485721975</v>
+        <v>1.054740376884976</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043814401869811</v>
+        <v>1.062018960194449</v>
       </c>
       <c r="J5">
-        <v>1.017388244358457</v>
+        <v>1.053379285497825</v>
       </c>
       <c r="K5">
-        <v>1.025840806182136</v>
+        <v>1.060431494064125</v>
       </c>
       <c r="L5">
-        <v>0.9960343839757838</v>
+        <v>1.052009589457621</v>
       </c>
       <c r="M5">
-        <v>1.015442473671989</v>
+        <v>1.064010966701531</v>
       </c>
       <c r="N5">
-        <v>1.013916866394953</v>
+        <v>1.054875204907525</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9986911744110126</v>
+        <v>1.035569290399906</v>
       </c>
       <c r="D6">
-        <v>1.016366134409645</v>
+        <v>1.051363427112159</v>
       </c>
       <c r="E6">
-        <v>0.9862293019641054</v>
+        <v>1.04286252355857</v>
       </c>
       <c r="F6">
-        <v>1.005920798240044</v>
+        <v>1.055006584914451</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043907001858636</v>
+        <v>1.062126690423746</v>
       </c>
       <c r="J6">
-        <v>1.017595650210051</v>
+        <v>1.053600740996061</v>
       </c>
       <c r="K6">
-        <v>1.02601432242792</v>
+        <v>1.060633736982961</v>
       </c>
       <c r="L6">
-        <v>0.9962295467653843</v>
+        <v>1.052221767464014</v>
       </c>
       <c r="M6">
-        <v>1.015688056977895</v>
+        <v>1.064239316174137</v>
       </c>
       <c r="N6">
-        <v>1.014058923600249</v>
+        <v>1.05509697489797</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9966793174370085</v>
+        <v>1.033492311032428</v>
       </c>
       <c r="D7">
-        <v>1.014895852800833</v>
+        <v>1.049705698650795</v>
       </c>
       <c r="E7">
-        <v>0.9845970782696306</v>
+        <v>1.041133167943131</v>
       </c>
       <c r="F7">
-        <v>1.003943468472947</v>
+        <v>1.053168428961217</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043265920541082</v>
+        <v>1.061381379840511</v>
       </c>
       <c r="J7">
-        <v>1.016162227792112</v>
+        <v>1.05207062807766</v>
       </c>
       <c r="K7">
-        <v>1.024814819472334</v>
+        <v>1.059236253199243</v>
       </c>
       <c r="L7">
-        <v>0.9948819626175834</v>
+        <v>1.050756415671255</v>
       </c>
       <c r="M7">
-        <v>1.013991545619537</v>
+        <v>1.062662065407257</v>
       </c>
       <c r="N7">
-        <v>1.013077048172045</v>
+        <v>1.053564689043718</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9880211071293252</v>
+        <v>1.024565885716407</v>
       </c>
       <c r="D8">
-        <v>1.008571167826699</v>
+        <v>1.042585941595002</v>
       </c>
       <c r="E8">
-        <v>0.9776118272393043</v>
+        <v>1.033724500591982</v>
       </c>
       <c r="F8">
-        <v>0.9954552556538211</v>
+        <v>1.045286405231976</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040474477852241</v>
+        <v>1.058149201197322</v>
       </c>
       <c r="J8">
-        <v>1.009982591423133</v>
+        <v>1.045484714255048</v>
       </c>
       <c r="K8">
-        <v>1.019636275516304</v>
+        <v>1.053218377180757</v>
       </c>
       <c r="L8">
-        <v>0.9891038504457538</v>
+        <v>1.044466236510251</v>
       </c>
       <c r="M8">
-        <v>1.006697142363516</v>
+        <v>1.055885990011102</v>
       </c>
       <c r="N8">
-        <v>1.008841859100702</v>
+        <v>1.046969422468063</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.971713341171066</v>
+        <v>1.007803644239244</v>
       </c>
       <c r="D9">
-        <v>0.9966777232283321</v>
+        <v>1.029241848848702</v>
       </c>
       <c r="E9">
-        <v>0.9646186434464215</v>
+        <v>1.019913053145668</v>
       </c>
       <c r="F9">
-        <v>0.9795572228530631</v>
+        <v>1.030562506603658</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035096107228456</v>
+        <v>1.05197180719593</v>
       </c>
       <c r="J9">
-        <v>0.998306097776356</v>
+        <v>1.033083813557288</v>
       </c>
       <c r="K9">
-        <v>1.009824933014179</v>
+        <v>1.04187766658374</v>
       </c>
       <c r="L9">
-        <v>0.9783130854136355</v>
+        <v>1.032691110147744</v>
       </c>
       <c r="M9">
-        <v>0.9929909124541307</v>
+        <v>1.043178452716555</v>
       </c>
       <c r="N9">
-        <v>1.000831545986481</v>
+        <v>1.03455091106891</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.960013191757326</v>
+        <v>0.9958167600679447</v>
       </c>
       <c r="D10">
-        <v>0.9881665111480115</v>
+        <v>1.019724125013521</v>
       </c>
       <c r="E10">
-        <v>0.9554210361674219</v>
+        <v>1.010114469191012</v>
       </c>
       <c r="F10">
-        <v>0.9682193771077946</v>
+        <v>1.020093936696277</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031160590771621</v>
+        <v>1.047485268950807</v>
       </c>
       <c r="J10">
-        <v>0.9899083197265184</v>
+        <v>1.024197338952657</v>
       </c>
       <c r="K10">
-        <v>1.002752761205118</v>
+        <v>1.033746158055821</v>
       </c>
       <c r="L10">
-        <v>0.9706446908354424</v>
+        <v>1.024303473987495</v>
       </c>
       <c r="M10">
-        <v>0.9831871691817425</v>
+        <v>1.034109625350275</v>
       </c>
       <c r="N10">
-        <v>0.9950658981932173</v>
+        <v>1.025651816651046</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9547187920189564</v>
+        <v>0.9904032950694395</v>
       </c>
       <c r="D11">
-        <v>0.9843225450814268</v>
+        <v>1.015433537448991</v>
       </c>
       <c r="E11">
-        <v>0.9512920314263905</v>
+        <v>1.005710293531454</v>
       </c>
       <c r="F11">
-        <v>0.9631070837249763</v>
+        <v>1.015382660908068</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029362855708094</v>
+        <v>1.045443800637877</v>
       </c>
       <c r="J11">
-        <v>0.986104666754836</v>
+        <v>1.020180830558678</v>
       </c>
       <c r="K11">
-        <v>0.9995462976848497</v>
+        <v>1.030070153149742</v>
       </c>
       <c r="L11">
-        <v>0.9671949261640683</v>
+        <v>1.020525319592086</v>
       </c>
       <c r="M11">
-        <v>0.9787599771031614</v>
+        <v>1.030020198569026</v>
       </c>
       <c r="N11">
-        <v>0.9924535253975131</v>
+        <v>1.021629604354448</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9527148390210585</v>
+        <v>0.9883560186176515</v>
       </c>
       <c r="D12">
-        <v>0.9828689135220355</v>
+        <v>1.013812258450795</v>
       </c>
       <c r="E12">
-        <v>0.9497344721425576</v>
+        <v>1.004048105821239</v>
       </c>
       <c r="F12">
-        <v>0.9611749760957242</v>
+        <v>1.013603617765158</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028679994480436</v>
+        <v>1.044669563105364</v>
       </c>
       <c r="J12">
-        <v>0.9846645449902851</v>
+        <v>1.01866148069295</v>
       </c>
       <c r="K12">
-        <v>0.9983318459007676</v>
+        <v>1.028679536783575</v>
       </c>
       <c r="L12">
-        <v>0.9658924850744989</v>
+        <v>1.019098159295194</v>
       </c>
       <c r="M12">
-        <v>0.9770858195726309</v>
+        <v>1.028474753644285</v>
       </c>
       <c r="N12">
-        <v>0.9914643220714738</v>
+        <v>1.020108096837638</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9531464391629609</v>
+        <v>0.9887968683846029</v>
       </c>
       <c r="D13">
-        <v>0.9831819250526</v>
+        <v>1.014161312393075</v>
       </c>
       <c r="E13">
-        <v>0.9500696861628984</v>
+        <v>1.004405875382123</v>
       </c>
       <c r="F13">
-        <v>0.9615909676435996</v>
+        <v>1.013986583281527</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028827171953344</v>
+        <v>1.044836380435241</v>
       </c>
       <c r="J13">
-        <v>0.9849747273890248</v>
+        <v>1.018988664702561</v>
       </c>
       <c r="K13">
-        <v>0.9985934408974275</v>
+        <v>1.028979001259596</v>
       </c>
       <c r="L13">
-        <v>0.9661728434980108</v>
+        <v>1.019405397775119</v>
       </c>
       <c r="M13">
-        <v>0.9774463167970647</v>
+        <v>1.028807488862887</v>
       </c>
       <c r="N13">
-        <v>0.9916773879070975</v>
+        <v>1.020435745486072</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9545539264284298</v>
+        <v>0.9902348290257226</v>
       </c>
       <c r="D14">
-        <v>0.9842029263572262</v>
+        <v>1.015300097460699</v>
       </c>
       <c r="E14">
-        <v>0.9511637814779157</v>
+        <v>1.005573445351282</v>
       </c>
       <c r="F14">
-        <v>0.9629480685414806</v>
+        <v>1.015236211677567</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029306724706035</v>
+        <v>1.045380134062448</v>
       </c>
       <c r="J14">
-        <v>0.9859861955189566</v>
+        <v>1.020055813471108</v>
       </c>
       <c r="K14">
-        <v>0.9994463996557739</v>
+        <v>1.029955729882168</v>
       </c>
       <c r="L14">
-        <v>0.9670877053195338</v>
+        <v>1.02040784652287</v>
       </c>
       <c r="M14">
-        <v>0.9786222111660661</v>
+        <v>1.029893003735152</v>
       </c>
       <c r="N14">
-        <v>0.9923721511480819</v>
+        <v>1.021504409728274</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9554160736515468</v>
+        <v>0.9911158761663241</v>
       </c>
       <c r="D15">
-        <v>0.9848285150681964</v>
+        <v>1.015998020416331</v>
       </c>
       <c r="E15">
-        <v>0.9518346679936776</v>
+        <v>1.006289276169943</v>
       </c>
       <c r="F15">
-        <v>0.9637797414224045</v>
+        <v>1.016002224947465</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029600158664602</v>
+        <v>1.045713010409193</v>
       </c>
       <c r="J15">
-        <v>0.9866057119041045</v>
+        <v>1.020709615699162</v>
       </c>
       <c r="K15">
-        <v>0.9999687746128371</v>
+        <v>1.030554126932859</v>
       </c>
       <c r="L15">
-        <v>0.9676485416073444</v>
+        <v>1.021022278691165</v>
       </c>
       <c r="M15">
-        <v>0.9793427079424003</v>
+        <v>1.030558255808027</v>
       </c>
       <c r="N15">
-        <v>0.9927976731914605</v>
+        <v>1.022159140430484</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9603595007245497</v>
+        <v>0.9961710893498575</v>
       </c>
       <c r="D16">
-        <v>0.9884181174282202</v>
+        <v>1.020005133669407</v>
       </c>
       <c r="E16">
-        <v>0.9556918256451843</v>
+        <v>1.010403191708494</v>
       </c>
       <c r="F16">
-        <v>0.9685541656131058</v>
+        <v>1.020402663306269</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031277842258395</v>
+        <v>1.047618581995391</v>
       </c>
       <c r="J16">
-        <v>0.9901570534474154</v>
+        <v>1.02446017461933</v>
       </c>
       <c r="K16">
-        <v>1.002962380017321</v>
+        <v>1.033986699660749</v>
       </c>
       <c r="L16">
-        <v>0.9708707821540764</v>
+        <v>1.024550986216523</v>
       </c>
       <c r="M16">
-        <v>0.9834769569693991</v>
+        <v>1.034377434401525</v>
       </c>
       <c r="N16">
-        <v>0.9952367127725723</v>
+        <v>1.025915025574514</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9633972269810821</v>
+        <v>0.9992803873191894</v>
       </c>
       <c r="D17">
-        <v>0.9906259982523925</v>
+        <v>1.022471927924905</v>
       </c>
       <c r="E17">
-        <v>0.9580708729155759</v>
+        <v>1.012939179553367</v>
       </c>
       <c r="F17">
-        <v>0.9714929071972203</v>
+        <v>1.023113675423149</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032304448332895</v>
+        <v>1.048786711850115</v>
       </c>
       <c r="J17">
-        <v>0.9923384834811669</v>
+        <v>1.026766247296053</v>
       </c>
       <c r="K17">
-        <v>1.004800408540371</v>
+        <v>1.036097090516522</v>
       </c>
       <c r="L17">
-        <v>0.9728563052647482</v>
+        <v>1.026724078904577</v>
       </c>
       <c r="M17">
-        <v>0.9860199392540574</v>
+        <v>1.036728222118697</v>
       </c>
       <c r="N17">
-        <v>0.9967346807010259</v>
+        <v>1.028224373138948</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9651472959583857</v>
+        <v>1.001072683448568</v>
       </c>
       <c r="D18">
-        <v>0.9918986659285763</v>
+        <v>1.023894583025461</v>
       </c>
       <c r="E18">
-        <v>0.9594445444937292</v>
+        <v>1.01440296265717</v>
       </c>
       <c r="F18">
-        <v>0.9731876430787161</v>
+        <v>1.024677924909914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032894292497885</v>
+        <v>1.049458613793838</v>
       </c>
       <c r="J18">
-        <v>0.9935948839383255</v>
+        <v>1.028095227256484</v>
       </c>
       <c r="K18">
-        <v>1.005858719733921</v>
+        <v>1.037313228947031</v>
       </c>
       <c r="L18">
-        <v>0.974002070520863</v>
+        <v>1.02797762872169</v>
       </c>
       <c r="M18">
-        <v>0.987485819373774</v>
+        <v>1.038083860317368</v>
       </c>
       <c r="N18">
-        <v>0.9975973531052033</v>
+        <v>1.029555240403359</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9657404170634645</v>
+        <v>1.001680280747959</v>
       </c>
       <c r="D19">
-        <v>0.9923300993306005</v>
+        <v>1.024376986998115</v>
       </c>
       <c r="E19">
-        <v>0.9599106120699222</v>
+        <v>1.014899518440205</v>
       </c>
       <c r="F19">
-        <v>0.9737622930693459</v>
+        <v>1.025208468533609</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033093924175563</v>
+        <v>1.049686143925992</v>
       </c>
       <c r="J19">
-        <v>0.9940206323093868</v>
+        <v>1.028545702087323</v>
       </c>
       <c r="K19">
-        <v>1.006217289525984</v>
+        <v>1.037725441588953</v>
       </c>
       <c r="L19">
-        <v>0.9743906971349787</v>
+        <v>1.028402737573027</v>
       </c>
       <c r="M19">
-        <v>0.9879827621875361</v>
+        <v>1.038543520442177</v>
       </c>
       <c r="N19">
-        <v>0.9978896662569484</v>
+        <v>1.030006354960128</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9630735822416423</v>
+        <v>0.9989490130072539</v>
       </c>
       <c r="D20">
-        <v>0.9903906943890241</v>
+        <v>1.022208952807218</v>
       </c>
       <c r="E20">
-        <v>0.9578170831870925</v>
+        <v>1.012668700607072</v>
       </c>
       <c r="F20">
-        <v>0.9711796312377464</v>
+        <v>1.022824587414981</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032195236851399</v>
+        <v>1.048662367457656</v>
       </c>
       <c r="J20">
-        <v>0.9921061052672362</v>
+        <v>1.026520508643015</v>
       </c>
       <c r="K20">
-        <v>1.004604642885073</v>
+        <v>1.035872211130566</v>
       </c>
       <c r="L20">
-        <v>0.972644566656452</v>
+        <v>1.026492384917094</v>
       </c>
       <c r="M20">
-        <v>0.9857489169583734</v>
+        <v>1.036477625758555</v>
       </c>
       <c r="N20">
-        <v>0.9965751175641907</v>
+        <v>1.027978285508836</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9541405151446319</v>
+        <v>0.9898124179106396</v>
       </c>
       <c r="D21">
-        <v>0.9839029966390969</v>
+        <v>1.014965532815239</v>
       </c>
       <c r="E21">
-        <v>0.9508422725264455</v>
+        <v>1.005230368168353</v>
       </c>
       <c r="F21">
-        <v>0.9625493751298483</v>
+        <v>1.014869049219272</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029165934220819</v>
+        <v>1.04522046187967</v>
       </c>
       <c r="J21">
-        <v>0.9856891147468518</v>
+        <v>1.019742340418753</v>
       </c>
       <c r="K21">
-        <v>0.9991958865957697</v>
+        <v>1.029668819211347</v>
       </c>
       <c r="L21">
-        <v>0.9668188962063406</v>
+        <v>1.020113322560396</v>
       </c>
       <c r="M21">
-        <v>0.9782767797121266</v>
+        <v>1.029574094264456</v>
       </c>
       <c r="N21">
-        <v>0.9921680936538747</v>
+        <v>1.021190491508229</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9483058558835122</v>
+        <v>0.9838551080326112</v>
       </c>
       <c r="D22">
-        <v>0.9796734164227239</v>
+        <v>1.010250592081766</v>
       </c>
       <c r="E22">
-        <v>0.9463177764388472</v>
+        <v>1.00040034940034</v>
       </c>
       <c r="F22">
-        <v>0.9569296756288947</v>
+        <v>1.009697593100776</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027173304669152</v>
+        <v>1.04296349752269</v>
       </c>
       <c r="J22">
-        <v>0.9814954327585107</v>
+        <v>1.015320643809217</v>
       </c>
       <c r="K22">
-        <v>0.9956585953573466</v>
+        <v>1.025621681552776</v>
       </c>
       <c r="L22">
-        <v>0.9630333611892726</v>
+        <v>1.015963879460791</v>
       </c>
       <c r="M22">
-        <v>0.9734055319495563</v>
+        <v>1.025079355980937</v>
       </c>
       <c r="N22">
-        <v>0.9892872964493747</v>
+        <v>1.016762515582332</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9514207314773164</v>
+        <v>0.9870344445499206</v>
       </c>
       <c r="D23">
-        <v>0.9819305933197552</v>
+        <v>1.012766080707664</v>
       </c>
       <c r="E23">
-        <v>0.9487301710261185</v>
+        <v>1.002976105554606</v>
       </c>
       <c r="F23">
-        <v>0.9599281127890076</v>
+        <v>1.012455977482243</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028238355310953</v>
+        <v>1.044169167699942</v>
       </c>
       <c r="J23">
-        <v>0.9837344435424693</v>
+        <v>1.017680606093092</v>
       </c>
       <c r="K23">
-        <v>0.9975473770735654</v>
+        <v>1.027781756142219</v>
       </c>
       <c r="L23">
-        <v>0.9650523675543327</v>
+        <v>1.018177384443773</v>
       </c>
       <c r="M23">
-        <v>0.9760051503636861</v>
+        <v>1.027477460147966</v>
       </c>
       <c r="N23">
-        <v>0.9908254147805143</v>
+        <v>1.019125829283341</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9632198904618562</v>
+        <v>0.9990988124136195</v>
       </c>
       <c r="D24">
-        <v>0.990497064752792</v>
+        <v>1.022327829800475</v>
       </c>
       <c r="E24">
-        <v>0.9579318029251824</v>
+        <v>1.012790965888284</v>
       </c>
       <c r="F24">
-        <v>0.9713212468574753</v>
+        <v>1.022955266326419</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032244612424344</v>
+        <v>1.048718582452662</v>
       </c>
       <c r="J24">
-        <v>0.9922111562378155</v>
+        <v>1.026631597001044</v>
       </c>
       <c r="K24">
-        <v>1.004693143410515</v>
+        <v>1.035973870093272</v>
       </c>
       <c r="L24">
-        <v>0.9727402802857883</v>
+        <v>1.026597120520129</v>
       </c>
       <c r="M24">
-        <v>0.9858714338606861</v>
+        <v>1.03659090732935</v>
       </c>
       <c r="N24">
-        <v>0.9966472513699354</v>
+        <v>1.028089531625075</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9760655540394325</v>
+        <v>1.012270836480078</v>
       </c>
       <c r="D25">
-        <v>0.9998487937007424</v>
+        <v>1.032794429065691</v>
       </c>
       <c r="E25">
-        <v>0.9680660889301622</v>
+        <v>1.023581262902796</v>
       </c>
       <c r="F25">
-        <v>0.9837890254880571</v>
+        <v>1.034476756404962</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036544952888252</v>
+        <v>1.053630199569654</v>
       </c>
       <c r="J25">
-        <v>1.001426156103317</v>
+        <v>1.036392179136195</v>
       </c>
       <c r="K25">
-        <v>1.012449457405777</v>
+        <v>1.044904123867093</v>
       </c>
       <c r="L25">
-        <v>0.9811812284069155</v>
+        <v>1.035824215773688</v>
       </c>
       <c r="M25">
-        <v>0.9966443191390858</v>
+        <v>1.046562442501634</v>
       </c>
       <c r="N25">
-        <v>1.002972808516088</v>
+        <v>1.037863974906413</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022201689264273</v>
+        <v>1.006807439406376</v>
       </c>
       <c r="D2">
-        <v>1.040701694300235</v>
+        <v>1.024043853919197</v>
       </c>
       <c r="E2">
-        <v>1.031768626074844</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.043203650739091</v>
+        <v>0.984021180968689</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057285879343676</v>
+        <v>1.047363709493501</v>
       </c>
       <c r="J2">
-        <v>1.043738039712715</v>
+        <v>1.028786430214893</v>
       </c>
       <c r="K2">
-        <v>1.051621681861211</v>
+        <v>1.035178081883906</v>
       </c>
       <c r="L2">
-        <v>1.042802428138688</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.054092197068532</v>
+        <v>0.9957077079529436</v>
       </c>
       <c r="N2">
-        <v>1.045220267447533</v>
+        <v>1.013025554719226</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029117880387229</v>
+        <v>1.012557183566921</v>
       </c>
       <c r="D3">
-        <v>1.046215606181299</v>
+        <v>1.028510808300496</v>
       </c>
       <c r="E3">
-        <v>1.037497751060834</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.049302188166491</v>
+        <v>0.9924702589199172</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059803087094197</v>
+        <v>1.049655894886112</v>
       </c>
       <c r="J3">
-        <v>1.048845053380914</v>
+        <v>1.032711283704727</v>
       </c>
       <c r="K3">
-        <v>1.056289422395951</v>
+        <v>1.038791435130035</v>
       </c>
       <c r="L3">
-        <v>1.047672309924744</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.059340831005303</v>
+        <v>1.003200399512632</v>
       </c>
       <c r="N3">
-        <v>1.050334533660924</v>
+        <v>1.014374211116808</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033468143550151</v>
+        <v>1.016171821426521</v>
       </c>
       <c r="D4">
-        <v>1.049686411829979</v>
+        <v>1.031320132815049</v>
       </c>
       <c r="E4">
-        <v>1.04111305780478</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.053147049785663</v>
+        <v>0.9977734481993606</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061372691690561</v>
+        <v>1.05108312486424</v>
       </c>
       <c r="J4">
-        <v>1.052052818405123</v>
+        <v>1.035170705637834</v>
       </c>
       <c r="K4">
-        <v>1.059219985670389</v>
+        <v>1.041054694016539</v>
       </c>
       <c r="L4">
-        <v>1.050739368808042</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.062643713846633</v>
+        <v>1.007898820230122</v>
       </c>
       <c r="N4">
-        <v>1.053546854079403</v>
+        <v>1.015218874977371</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035268606931199</v>
+        <v>1.017667334050714</v>
       </c>
       <c r="D5">
-        <v>1.051123414548883</v>
+        <v>1.032482669230275</v>
       </c>
       <c r="E5">
-        <v>1.042612034265146</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.054740376884976</v>
+        <v>0.9999659788355351</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062018960194449</v>
+        <v>1.051670287397477</v>
       </c>
       <c r="J5">
-        <v>1.053379285497825</v>
+        <v>1.036186337887784</v>
       </c>
       <c r="K5">
-        <v>1.060431494064125</v>
+        <v>1.041989067108258</v>
       </c>
       <c r="L5">
-        <v>1.052009589457621</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.064010966701531</v>
+        <v>1.009840203970962</v>
       </c>
       <c r="N5">
-        <v>1.054875204907525</v>
+        <v>1.015567567818973</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035569290399906</v>
+        <v>1.017917059737093</v>
       </c>
       <c r="D6">
-        <v>1.051363427112159</v>
+        <v>1.032676804298386</v>
       </c>
       <c r="E6">
-        <v>1.04286252355857</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.055006584914451</v>
+        <v>1.000332012353565</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062126690423746</v>
+        <v>1.051768136614518</v>
       </c>
       <c r="J6">
-        <v>1.053600740996061</v>
+        <v>1.036355818109669</v>
       </c>
       <c r="K6">
-        <v>1.060633736982961</v>
+        <v>1.042144972055817</v>
       </c>
       <c r="L6">
-        <v>1.052221767464014</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.064239316174137</v>
+        <v>1.01016424302381</v>
       </c>
       <c r="N6">
-        <v>1.05509697489797</v>
+        <v>1.015625747666001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033492311032428</v>
+        <v>1.016191897574552</v>
       </c>
       <c r="D7">
-        <v>1.049705698650795</v>
+        <v>1.031335738238252</v>
       </c>
       <c r="E7">
-        <v>1.041133167943131</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.053168428961217</v>
+        <v>0.9978028871000073</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061381379840511</v>
+        <v>1.051091020330613</v>
       </c>
       <c r="J7">
-        <v>1.05207062807766</v>
+        <v>1.035184347373774</v>
       </c>
       <c r="K7">
-        <v>1.059236253199243</v>
+        <v>1.041067245324446</v>
       </c>
       <c r="L7">
-        <v>1.050756415671255</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.062662065407257</v>
+        <v>1.007924891462602</v>
       </c>
       <c r="N7">
-        <v>1.053564689043718</v>
+        <v>1.015223559010302</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024565885716407</v>
+        <v>1.008773293252464</v>
       </c>
       <c r="D8">
-        <v>1.042585941595002</v>
+        <v>1.02557084447385</v>
       </c>
       <c r="E8">
-        <v>1.033724500591982</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.045286405231976</v>
+        <v>0.9869119887656003</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058149201197322</v>
+        <v>1.048150300551131</v>
       </c>
       <c r="J8">
-        <v>1.045484714255048</v>
+        <v>1.030130026145782</v>
       </c>
       <c r="K8">
-        <v>1.053218377180757</v>
+        <v>1.036415233809174</v>
       </c>
       <c r="L8">
-        <v>1.044466236510251</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.055885990011102</v>
+        <v>0.9982722134348077</v>
       </c>
       <c r="N8">
-        <v>1.046969422468063</v>
+        <v>1.013487327639687</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007803644239244</v>
+        <v>0.9948280727243337</v>
       </c>
       <c r="D9">
-        <v>1.029241848848702</v>
+        <v>1.014746214175928</v>
       </c>
       <c r="E9">
-        <v>1.019913053145668</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>1.030562506603658</v>
+        <v>0.9663493289445297</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05197180719593</v>
+        <v>1.042512259068006</v>
       </c>
       <c r="J9">
-        <v>1.033083813557288</v>
+        <v>1.020564796359993</v>
       </c>
       <c r="K9">
-        <v>1.04187766658374</v>
+        <v>1.027604490550301</v>
       </c>
       <c r="L9">
-        <v>1.032691110147744</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.043178452716555</v>
+        <v>0.9800130262133546</v>
       </c>
       <c r="N9">
-        <v>1.03455091106891</v>
+        <v>1.010198429443117</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9958167600679447</v>
+        <v>0.9848472134616627</v>
       </c>
       <c r="D10">
-        <v>1.019724125013521</v>
+        <v>1.007011378325251</v>
       </c>
       <c r="E10">
-        <v>1.010114469191012</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>1.020093936696277</v>
+        <v>0.9515344544693839</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047485268950807</v>
+        <v>1.038403796095989</v>
       </c>
       <c r="J10">
-        <v>1.024197338952657</v>
+        <v>1.013675197580407</v>
       </c>
       <c r="K10">
-        <v>1.033746158055821</v>
+        <v>1.021255183683406</v>
       </c>
       <c r="L10">
-        <v>1.024303473987495</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.034109625350275</v>
+        <v>0.966837607168342</v>
       </c>
       <c r="N10">
-        <v>1.025651816651046</v>
+        <v>1.007828139819198</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9904032950694395</v>
+        <v>0.9803378070739044</v>
       </c>
       <c r="D11">
-        <v>1.015433537448991</v>
+        <v>1.003520786623014</v>
       </c>
       <c r="E11">
-        <v>1.005710293531454</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>1.015382660908068</v>
+        <v>0.944808016630859</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045443800637877</v>
+        <v>1.036530573152165</v>
       </c>
       <c r="J11">
-        <v>1.020180830558678</v>
+        <v>1.010552066525778</v>
       </c>
       <c r="K11">
-        <v>1.030070153149742</v>
+        <v>1.018376610106735</v>
       </c>
       <c r="L11">
-        <v>1.020525319592086</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.030020198569026</v>
+        <v>0.9608516426454777</v>
       </c>
       <c r="N11">
-        <v>1.021629604354448</v>
+        <v>1.006753513724025</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9883560186176515</v>
+        <v>0.978632135560857</v>
       </c>
       <c r="D12">
-        <v>1.013812258450795</v>
+        <v>1.002201185473057</v>
       </c>
       <c r="E12">
-        <v>1.004048105821239</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.013603617765158</v>
+        <v>0.9422578197563172</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044669563105364</v>
+        <v>1.035819510242721</v>
       </c>
       <c r="J12">
-        <v>1.01866148069295</v>
+        <v>1.009369184107765</v>
       </c>
       <c r="K12">
-        <v>1.028679536783575</v>
+        <v>1.01728633539962</v>
       </c>
       <c r="L12">
-        <v>1.019098159295194</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.028474753644285</v>
+        <v>0.9585816864884215</v>
       </c>
       <c r="N12">
-        <v>1.020108096837638</v>
+        <v>1.006346494651166</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9887968683846029</v>
+        <v>0.9789994395537011</v>
       </c>
       <c r="D13">
-        <v>1.014161312393075</v>
+        <v>1.002485318488064</v>
       </c>
       <c r="E13">
-        <v>1.004405875382123</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.013986583281527</v>
+        <v>0.9428072715283277</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044836380435241</v>
+        <v>1.035972745759327</v>
       </c>
       <c r="J13">
-        <v>1.018988664702561</v>
+        <v>1.009623980124856</v>
       </c>
       <c r="K13">
-        <v>1.028979001259596</v>
+        <v>1.017521183667819</v>
       </c>
       <c r="L13">
-        <v>1.019405397775119</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.028807488862887</v>
+        <v>0.9590707798577818</v>
       </c>
       <c r="N13">
-        <v>1.020435745486072</v>
+        <v>1.006434167616399</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9902348290257226</v>
+        <v>0.9801974570665035</v>
       </c>
       <c r="D14">
-        <v>1.015300097460699</v>
+        <v>1.003412189236974</v>
       </c>
       <c r="E14">
-        <v>1.005573445351282</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.015236211677567</v>
+        <v>0.9445983020480866</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045380134062448</v>
+        <v>1.036472114777381</v>
       </c>
       <c r="J14">
-        <v>1.020055813471108</v>
+        <v>1.010454765685159</v>
       </c>
       <c r="K14">
-        <v>1.029955729882168</v>
+        <v>1.018286927082886</v>
       </c>
       <c r="L14">
-        <v>1.02040784652287</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.029893003735152</v>
+        <v>0.9606649830375232</v>
       </c>
       <c r="N14">
-        <v>1.021504409728274</v>
+        <v>1.006720033404977</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9911158761663241</v>
+        <v>0.9809314503275905</v>
       </c>
       <c r="D15">
-        <v>1.015998020416331</v>
+        <v>1.003980154033866</v>
       </c>
       <c r="E15">
-        <v>1.006289276169943</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>1.016002224947465</v>
+        <v>0.9456948059807491</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045713010409193</v>
+        <v>1.036777734254744</v>
       </c>
       <c r="J15">
-        <v>1.020709615699162</v>
+        <v>1.010963559515967</v>
       </c>
       <c r="K15">
-        <v>1.030554126932859</v>
+        <v>1.018755886231226</v>
       </c>
       <c r="L15">
-        <v>1.021022278691165</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.030558255808027</v>
+        <v>0.961640923254336</v>
       </c>
       <c r="N15">
-        <v>1.022159140430484</v>
+        <v>1.006895104527543</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9961710893498575</v>
+        <v>0.9851423295075191</v>
       </c>
       <c r="D16">
-        <v>1.020005133669407</v>
+        <v>1.007239910432966</v>
       </c>
       <c r="E16">
-        <v>1.010403191708494</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.020402663306269</v>
+        <v>0.9519739005622957</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047618581995391</v>
+        <v>1.038526039064106</v>
       </c>
       <c r="J16">
-        <v>1.02446017461933</v>
+        <v>1.013879374133623</v>
       </c>
       <c r="K16">
-        <v>1.033986699660749</v>
+        <v>1.021443367611321</v>
       </c>
       <c r="L16">
-        <v>1.024550986216523</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.034377434401525</v>
+        <v>0.9672286040472994</v>
       </c>
       <c r="N16">
-        <v>1.025915025574514</v>
+        <v>1.007898392446002</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9992803873191894</v>
+        <v>0.9877318088416603</v>
       </c>
       <c r="D17">
-        <v>1.022471927924905</v>
+        <v>1.009245621146954</v>
       </c>
       <c r="E17">
-        <v>1.012939179553367</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.023113675423149</v>
+        <v>0.95582596684482</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048786711850115</v>
+        <v>1.039596737611184</v>
       </c>
       <c r="J17">
-        <v>1.026766247296053</v>
+        <v>1.015669738179851</v>
       </c>
       <c r="K17">
-        <v>1.036097090516522</v>
+        <v>1.023093460141711</v>
       </c>
       <c r="L17">
-        <v>1.026724078904577</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.036728222118697</v>
+        <v>0.9706555484272924</v>
       </c>
       <c r="N17">
-        <v>1.028224373138948</v>
+        <v>1.008514402253168</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001072683448568</v>
+        <v>0.989224288675136</v>
       </c>
       <c r="D18">
-        <v>1.023894583025461</v>
+        <v>1.010402012526926</v>
       </c>
       <c r="E18">
-        <v>1.01440296265717</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.024677924909914</v>
+        <v>0.9580431221599857</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049458613793838</v>
+        <v>1.040212247865764</v>
       </c>
       <c r="J18">
-        <v>1.028095227256484</v>
+        <v>1.01670066277659</v>
       </c>
       <c r="K18">
-        <v>1.037313228947031</v>
+        <v>1.024043577239288</v>
       </c>
       <c r="L18">
-        <v>1.02797762872169</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.038083860317368</v>
+        <v>0.972627642509031</v>
       </c>
       <c r="N18">
-        <v>1.029555240403359</v>
+        <v>1.00886909705249</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001680280747959</v>
+        <v>0.9897302167806349</v>
       </c>
       <c r="D19">
-        <v>1.024376986998115</v>
+        <v>1.010794072404181</v>
       </c>
       <c r="E19">
-        <v>1.014899518440205</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.025208468533609</v>
+        <v>0.9587942166176709</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049686143925992</v>
+        <v>1.040420624052335</v>
       </c>
       <c r="J19">
-        <v>1.028545702087323</v>
+        <v>1.01704996541707</v>
       </c>
       <c r="K19">
-        <v>1.037725441588953</v>
+        <v>1.024365493088592</v>
       </c>
       <c r="L19">
-        <v>1.028402737573027</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.038543520442177</v>
+        <v>0.9732956533680777</v>
       </c>
       <c r="N19">
-        <v>1.030006354960128</v>
+        <v>1.008989273373345</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9989490130072539</v>
+        <v>0.9874558527111298</v>
       </c>
       <c r="D20">
-        <v>1.022208952807218</v>
+        <v>1.009031836636709</v>
       </c>
       <c r="E20">
-        <v>1.012668700607072</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.022824587414981</v>
+        <v>0.9554157807359438</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048662367457656</v>
+        <v>1.03948280129864</v>
       </c>
       <c r="J20">
-        <v>1.026520508643015</v>
+        <v>1.015479043652873</v>
       </c>
       <c r="K20">
-        <v>1.035872211130566</v>
+        <v>1.022917709714109</v>
       </c>
       <c r="L20">
-        <v>1.026492384917094</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.036477625758555</v>
+        <v>0.970290669320315</v>
       </c>
       <c r="N20">
-        <v>1.027978285508836</v>
+        <v>1.008448791513028</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9898124179106396</v>
+        <v>0.9798455391965536</v>
       </c>
       <c r="D21">
-        <v>1.014965532815239</v>
+        <v>1.003139900557932</v>
       </c>
       <c r="E21">
-        <v>1.005230368168353</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>1.014869049219272</v>
+        <v>0.94407235822792</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04522046187967</v>
+        <v>1.03632549403849</v>
       </c>
       <c r="J21">
-        <v>1.019742340418753</v>
+        <v>1.010210765382092</v>
       </c>
       <c r="K21">
-        <v>1.029668819211347</v>
+        <v>1.018062029737384</v>
       </c>
       <c r="L21">
-        <v>1.020113322560396</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.029574094264456</v>
+        <v>0.9601968512260572</v>
       </c>
       <c r="N21">
-        <v>1.021190491508229</v>
+        <v>1.006636075126094</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9838551080326112</v>
+        <v>0.974881666674499</v>
       </c>
       <c r="D22">
-        <v>1.010250592081766</v>
+        <v>0.9993010339809212</v>
       </c>
       <c r="E22">
-        <v>1.00040034940034</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>1.009697593100776</v>
+        <v>0.9366382145560175</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04296349752269</v>
+        <v>1.034251395019343</v>
       </c>
       <c r="J22">
-        <v>1.015320643809217</v>
+        <v>1.006765333827943</v>
       </c>
       <c r="K22">
-        <v>1.025621681552776</v>
+        <v>1.014886350253003</v>
       </c>
       <c r="L22">
-        <v>1.015963879460791</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.025079355980937</v>
+        <v>0.9535788161694253</v>
       </c>
       <c r="N22">
-        <v>1.016762515582332</v>
+        <v>1.005450542566693</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9870344445499206</v>
+        <v>0.9775309910714941</v>
       </c>
       <c r="D23">
-        <v>1.012766080707664</v>
+        <v>1.001349491582528</v>
       </c>
       <c r="E23">
-        <v>1.002976105554606</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.012455977482243</v>
+        <v>0.9406096579924564</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044169167699942</v>
+        <v>1.03535975680957</v>
       </c>
       <c r="J23">
-        <v>1.017680606093092</v>
+        <v>1.008605097997555</v>
       </c>
       <c r="K23">
-        <v>1.027781756142219</v>
+        <v>1.016582069237976</v>
       </c>
       <c r="L23">
-        <v>1.018177384443773</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.027477460147966</v>
+        <v>0.9571145137500907</v>
       </c>
       <c r="N23">
-        <v>1.019125829283341</v>
+        <v>1.006083580171015</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9990988124136195</v>
+        <v>0.987580600601214</v>
       </c>
       <c r="D24">
-        <v>1.022327829800475</v>
+        <v>1.009128478258312</v>
       </c>
       <c r="E24">
-        <v>1.012790965888284</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.022955266326419</v>
+        <v>0.9556012175703866</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048718582452662</v>
+        <v>1.039534311975847</v>
       </c>
       <c r="J24">
-        <v>1.026631597001044</v>
+        <v>1.015565251468638</v>
       </c>
       <c r="K24">
-        <v>1.035973870093272</v>
+        <v>1.022997161824793</v>
       </c>
       <c r="L24">
-        <v>1.026597120520129</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.03659090732935</v>
+        <v>0.9704556249373503</v>
       </c>
       <c r="N24">
-        <v>1.028089531625075</v>
+        <v>1.008478452394258</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012270836480078</v>
+        <v>0.9985460331005838</v>
       </c>
       <c r="D25">
-        <v>1.032794429065691</v>
+        <v>1.01763037539234</v>
       </c>
       <c r="E25">
-        <v>1.023581262902796</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.034476756404962</v>
+        <v>0.9718454023412292</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053630199569654</v>
+        <v>1.044028025923075</v>
       </c>
       <c r="J25">
-        <v>1.036392179136195</v>
+        <v>1.023122428303539</v>
       </c>
       <c r="K25">
-        <v>1.044904123867093</v>
+        <v>1.029961031332688</v>
       </c>
       <c r="L25">
-        <v>1.035824215773688</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.046562442501634</v>
+        <v>0.9848970937840432</v>
       </c>
       <c r="N25">
-        <v>1.037863974906413</v>
+        <v>1.011078131463704</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006807439406376</v>
+        <v>1.033305856709975</v>
       </c>
       <c r="D2">
-        <v>1.024043853919197</v>
+        <v>1.037653753515076</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.984021180968689</v>
+        <v>1.031939001865432</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047363709493501</v>
+        <v>1.037995726329598</v>
       </c>
       <c r="J2">
-        <v>1.028786430214893</v>
+        <v>1.038431309000492</v>
       </c>
       <c r="K2">
-        <v>1.035178081883906</v>
+        <v>1.040444022575654</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9957077079529436</v>
+        <v>1.034745672920536</v>
       </c>
       <c r="N2">
-        <v>1.013025554719226</v>
+        <v>1.016716152168733</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012557183566921</v>
+        <v>1.034416717210054</v>
       </c>
       <c r="D3">
-        <v>1.028510808300496</v>
+        <v>1.038521502404954</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9924702589199172</v>
+        <v>1.033681716798242</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049655894886112</v>
+        <v>1.038349306449945</v>
       </c>
       <c r="J3">
-        <v>1.032711283704727</v>
+        <v>1.039184009651757</v>
       </c>
       <c r="K3">
-        <v>1.038791435130035</v>
+        <v>1.04112147028148</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.003200399512632</v>
+        <v>1.036294556829217</v>
       </c>
       <c r="N3">
-        <v>1.014374211116808</v>
+        <v>1.016971395930734</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016171821426521</v>
+        <v>1.035134342349869</v>
       </c>
       <c r="D4">
-        <v>1.031320132815049</v>
+        <v>1.039081898456121</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9977734481993606</v>
+        <v>1.034808048075874</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05108312486424</v>
+        <v>1.038576106959262</v>
       </c>
       <c r="J4">
-        <v>1.035170705637834</v>
+        <v>1.039669350303737</v>
       </c>
       <c r="K4">
-        <v>1.041054694016539</v>
+        <v>1.04155809425172</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.007898820230122</v>
+        <v>1.037295030839944</v>
       </c>
       <c r="N4">
-        <v>1.015218874977371</v>
+        <v>1.017135843460491</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017667334050714</v>
+        <v>1.035435753766698</v>
       </c>
       <c r="D5">
-        <v>1.032482669230275</v>
+        <v>1.039317228672967</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9999659788355351</v>
+        <v>1.035281251253029</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051670287397477</v>
+        <v>1.038670978904319</v>
       </c>
       <c r="J5">
-        <v>1.036186337887784</v>
+        <v>1.039872981343277</v>
       </c>
       <c r="K5">
-        <v>1.041989067108258</v>
+        <v>1.041741238849853</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.009840203970962</v>
+        <v>1.037715218207485</v>
       </c>
       <c r="N5">
-        <v>1.015567567818973</v>
+        <v>1.017204807485787</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017917059737093</v>
+        <v>1.035486345852499</v>
       </c>
       <c r="D6">
-        <v>1.032676804298386</v>
+        <v>1.039356726445964</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.000332012353565</v>
+        <v>1.035360686464047</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051768136614518</v>
+        <v>1.038686880505135</v>
       </c>
       <c r="J6">
-        <v>1.036355818109669</v>
+        <v>1.039907148144727</v>
       </c>
       <c r="K6">
-        <v>1.042144972055817</v>
+        <v>1.04177196552596</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.01016424302381</v>
+        <v>1.037785745616671</v>
       </c>
       <c r="N6">
-        <v>1.015625747666001</v>
+        <v>1.017216376919929</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016191897574552</v>
+        <v>1.03513837091298</v>
       </c>
       <c r="D7">
-        <v>1.031335738238252</v>
+        <v>1.039085043970303</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9978028871000073</v>
+        <v>1.034814372231892</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051091020330613</v>
+        <v>1.038577376507634</v>
       </c>
       <c r="J7">
-        <v>1.035184347373774</v>
+        <v>1.039672072824567</v>
       </c>
       <c r="K7">
-        <v>1.041067245324446</v>
+        <v>1.041560543055642</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.007924891462602</v>
+        <v>1.037300647011725</v>
       </c>
       <c r="N7">
-        <v>1.015223559010302</v>
+        <v>1.017136765627056</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008773293252464</v>
+        <v>1.033681522695562</v>
       </c>
       <c r="D8">
-        <v>1.02557084447385</v>
+        <v>1.037947241347132</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9869119887656003</v>
+        <v>1.032528240233354</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048150300551131</v>
+        <v>1.038115633102962</v>
       </c>
       <c r="J8">
-        <v>1.030130026145782</v>
+        <v>1.038686042659904</v>
       </c>
       <c r="K8">
-        <v>1.036415233809174</v>
+        <v>1.040673328643568</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9982722134348077</v>
+        <v>1.035269494709713</v>
       </c>
       <c r="N8">
-        <v>1.013487327639687</v>
+        <v>1.016802560952063</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9948280727243337</v>
+        <v>1.031105214372021</v>
       </c>
       <c r="D9">
-        <v>1.014746214175928</v>
+        <v>1.035933807374396</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9663493289445297</v>
+        <v>1.0284892128835</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042512259068006</v>
+        <v>1.037286686531684</v>
       </c>
       <c r="J9">
-        <v>1.020564796359993</v>
+        <v>1.036935345386832</v>
       </c>
       <c r="K9">
-        <v>1.027604490550301</v>
+        <v>1.039096601096069</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9800130262133546</v>
+        <v>1.031676488067223</v>
       </c>
       <c r="N9">
-        <v>1.010198429443117</v>
+        <v>1.016208158506152</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9848472134616627</v>
+        <v>1.029381307295348</v>
       </c>
       <c r="D10">
-        <v>1.007011378325251</v>
+        <v>1.034585687035092</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9515344544693839</v>
+        <v>1.025788793877226</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038403796095989</v>
+        <v>1.036723687560284</v>
       </c>
       <c r="J10">
-        <v>1.013675197580407</v>
+        <v>1.035759188245554</v>
       </c>
       <c r="K10">
-        <v>1.021255183683406</v>
+        <v>1.038036346405276</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.966837607168342</v>
+        <v>1.029271277050404</v>
       </c>
       <c r="N10">
-        <v>1.007828139819198</v>
+        <v>1.015808146868951</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9803378070739044</v>
+        <v>1.028633277833727</v>
       </c>
       <c r="D11">
-        <v>1.003520786623014</v>
+        <v>1.034000523227245</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.944808016630859</v>
+        <v>1.024617508194593</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036530573152165</v>
+        <v>1.036477424392942</v>
       </c>
       <c r="J11">
-        <v>1.010552066525778</v>
+        <v>1.035247722047239</v>
       </c>
       <c r="K11">
-        <v>1.018376610106735</v>
+        <v>1.037575055037318</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9608516426454777</v>
+        <v>1.028227327885361</v>
       </c>
       <c r="N11">
-        <v>1.006753513724025</v>
+        <v>1.015634037807649</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.978632135560857</v>
+        <v>1.028355186798863</v>
       </c>
       <c r="D12">
-        <v>1.002201185473057</v>
+        <v>1.033782951497556</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9422578197563172</v>
+        <v>1.024182129973621</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035819510242721</v>
+        <v>1.036385576821115</v>
       </c>
       <c r="J12">
-        <v>1.009369184107765</v>
+        <v>1.035057409610436</v>
       </c>
       <c r="K12">
-        <v>1.01728633539962</v>
+        <v>1.037403378536868</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9585816864884215</v>
+        <v>1.02783917575818</v>
       </c>
       <c r="N12">
-        <v>1.006346494651166</v>
+        <v>1.015569229478372</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9789994395537011</v>
+        <v>1.028414849180535</v>
       </c>
       <c r="D13">
-        <v>1.002485318488064</v>
+        <v>1.033829631182558</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9428072715283277</v>
+        <v>1.024275534329493</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035972745759327</v>
+        <v>1.03640529541059</v>
       </c>
       <c r="J13">
-        <v>1.009623980124856</v>
+        <v>1.035098247310259</v>
       </c>
       <c r="K13">
-        <v>1.017521183667819</v>
+        <v>1.03744021881223</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9590707798577818</v>
+        <v>1.0279224532095</v>
       </c>
       <c r="N13">
-        <v>1.006434167616399</v>
+        <v>1.015583137277585</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9801974570665035</v>
+        <v>1.028610295654337</v>
       </c>
       <c r="D14">
-        <v>1.003412189236974</v>
+        <v>1.033982543098813</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9445983020480866</v>
+        <v>1.024581526100999</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036472114777381</v>
+        <v>1.036469839893138</v>
       </c>
       <c r="J14">
-        <v>1.010454765685159</v>
+        <v>1.035231997535388</v>
       </c>
       <c r="K14">
-        <v>1.018286927082886</v>
+        <v>1.037560870999803</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9606649830375232</v>
+        <v>1.028195250983763</v>
       </c>
       <c r="N14">
-        <v>1.006720033404977</v>
+        <v>1.01562868352102</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9809314503275905</v>
+        <v>1.028730684801585</v>
       </c>
       <c r="D15">
-        <v>1.003980154033866</v>
+        <v>1.034076728495985</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9456948059807491</v>
+        <v>1.024770016212842</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036777734254744</v>
+        <v>1.036509558206249</v>
       </c>
       <c r="J15">
-        <v>1.010963559515967</v>
+        <v>1.035314361489692</v>
       </c>
       <c r="K15">
-        <v>1.018755886231226</v>
+        <v>1.03763516467376</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.961640923254336</v>
+        <v>1.02836327963018</v>
       </c>
       <c r="N15">
-        <v>1.006895104527543</v>
+        <v>1.015656727949433</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9851423295075191</v>
+        <v>1.029430918183405</v>
       </c>
       <c r="D16">
-        <v>1.007239910432966</v>
+        <v>1.034624492309434</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9519739005622957</v>
+        <v>1.025866485365589</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038526039064106</v>
+        <v>1.036739978817916</v>
       </c>
       <c r="J16">
-        <v>1.013879374133623</v>
+        <v>1.035793086316502</v>
       </c>
       <c r="K16">
-        <v>1.021443367611321</v>
+        <v>1.038066914336527</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9672286040472994</v>
+        <v>1.02934050741288</v>
       </c>
       <c r="N16">
-        <v>1.007898392446002</v>
+        <v>1.015819682833519</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9877318088416603</v>
+        <v>1.029869733735916</v>
       </c>
       <c r="D17">
-        <v>1.009245621146954</v>
+        <v>1.034967708343003</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.95582596684482</v>
+        <v>1.026553731139904</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039596737611184</v>
+        <v>1.036883850150624</v>
       </c>
       <c r="J17">
-        <v>1.015669738179851</v>
+        <v>1.036092791187647</v>
       </c>
       <c r="K17">
-        <v>1.023093460141711</v>
+        <v>1.038337150168648</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9706555484272924</v>
+        <v>1.029952825845284</v>
       </c>
       <c r="N17">
-        <v>1.008514402253168</v>
+        <v>1.015921658063723</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.989224288675136</v>
+        <v>1.030125536587242</v>
       </c>
       <c r="D18">
-        <v>1.010402012526926</v>
+        <v>1.035167763738083</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9580431221599857</v>
+        <v>1.026954399135216</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040212247865764</v>
+        <v>1.036967528613244</v>
       </c>
       <c r="J18">
-        <v>1.01670066277659</v>
+        <v>1.036267393620047</v>
       </c>
       <c r="K18">
-        <v>1.024043577239288</v>
+        <v>1.038494562644961</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.972627642509031</v>
+        <v>1.030309742574142</v>
       </c>
       <c r="N18">
-        <v>1.00886909705249</v>
+        <v>1.015981051591528</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9897302167806349</v>
+        <v>1.030212733292611</v>
       </c>
       <c r="D19">
-        <v>1.010794072404181</v>
+        <v>1.035235954349571</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9587942166176709</v>
+        <v>1.027090984563341</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040420624052335</v>
+        <v>1.036996020277476</v>
       </c>
       <c r="J19">
-        <v>1.01704996541707</v>
+        <v>1.036326892955799</v>
       </c>
       <c r="K19">
-        <v>1.024365493088592</v>
+        <v>1.03854820043653</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9732956533680777</v>
+        <v>1.030431401868368</v>
       </c>
       <c r="N19">
-        <v>1.008989273373345</v>
+        <v>1.016001288541592</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9874558527111298</v>
+        <v>1.029822668613871</v>
       </c>
       <c r="D20">
-        <v>1.009031836636709</v>
+        <v>1.034930898671711</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>0.9554157807359438</v>
+        <v>1.026480016001666</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03948280129864</v>
+        <v>1.03686843887829</v>
       </c>
       <c r="J20">
-        <v>1.015479043652873</v>
+        <v>1.036060657473058</v>
       </c>
       <c r="K20">
-        <v>1.022917709714109</v>
+        <v>1.038308178319562</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.970290669320315</v>
+        <v>1.029887154596309</v>
       </c>
       <c r="N20">
-        <v>1.008448791513028</v>
+        <v>1.015910726082869</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9798455391965536</v>
+        <v>1.028552748187388</v>
       </c>
       <c r="D21">
-        <v>1.003139900557932</v>
+        <v>1.033937520330531</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.94407235822792</v>
+        <v>1.024491427821979</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03632549403849</v>
+        <v>1.036450843502933</v>
       </c>
       <c r="J21">
-        <v>1.010210765382092</v>
+        <v>1.035192620594355</v>
       </c>
       <c r="K21">
-        <v>1.018062029737384</v>
+        <v>1.037525351134067</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9601968512260572</v>
+        <v>1.028114929496292</v>
       </c>
       <c r="N21">
-        <v>1.006636075126094</v>
+        <v>1.015615275063302</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.974881666674499</v>
+        <v>1.027752910497369</v>
       </c>
       <c r="D22">
-        <v>0.9993010339809212</v>
+        <v>1.033311693824298</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9366382145560175</v>
+        <v>1.023239320586776</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034251395019343</v>
+        <v>1.036186117292852</v>
       </c>
       <c r="J22">
-        <v>1.006765333827943</v>
+        <v>1.034644933984992</v>
       </c>
       <c r="K22">
-        <v>1.014886350253003</v>
+        <v>1.037031232389386</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9535788161694253</v>
+        <v>1.026998440339686</v>
       </c>
       <c r="N22">
-        <v>1.005450542566693</v>
+        <v>1.015428723170841</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9775309910714941</v>
+        <v>1.028177052621146</v>
       </c>
       <c r="D23">
-        <v>1.001349491582528</v>
+        <v>1.033643575695893</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9406096579924564</v>
+        <v>1.023903261295188</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03535975680957</v>
+        <v>1.036326659698365</v>
       </c>
       <c r="J23">
-        <v>1.008605097997555</v>
+        <v>1.0349354558538</v>
       </c>
       <c r="K23">
-        <v>1.016582069237976</v>
+        <v>1.037293357392137</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9571145137500907</v>
+        <v>1.027590526510456</v>
       </c>
       <c r="N23">
-        <v>1.006083580171015</v>
+        <v>1.015527693105143</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.987580600601214</v>
+        <v>1.029843935782455</v>
       </c>
       <c r="D24">
-        <v>1.009128478258312</v>
+        <v>1.034947531800023</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9556012175703866</v>
+        <v>1.02651332528816</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039534311975847</v>
+        <v>1.036875403308039</v>
       </c>
       <c r="J24">
-        <v>1.015565251468638</v>
+        <v>1.03607517796525</v>
       </c>
       <c r="K24">
-        <v>1.022997161824793</v>
+        <v>1.038321270104479</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9704556249373503</v>
+        <v>1.029916829342122</v>
       </c>
       <c r="N24">
-        <v>1.008478452394258</v>
+        <v>1.015915666042904</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9985460331005838</v>
+        <v>1.031772358571091</v>
       </c>
       <c r="D25">
-        <v>1.01763037539234</v>
+        <v>1.036455346491991</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9718454023412292</v>
+        <v>1.029534715221714</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044028025923075</v>
+        <v>1.037502810292104</v>
       </c>
       <c r="J25">
-        <v>1.023122428303539</v>
+        <v>1.037389521592881</v>
       </c>
       <c r="K25">
-        <v>1.029961031332688</v>
+        <v>1.039505817631164</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9848970937840432</v>
+        <v>1.032607065576322</v>
       </c>
       <c r="N25">
-        <v>1.011078131463704</v>
+        <v>1.016362481773597</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033305856709975</v>
+        <v>1.006807439406377</v>
       </c>
       <c r="D2">
-        <v>1.037653753515076</v>
+        <v>1.024043853919197</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.031939001865432</v>
+        <v>0.9840211809686896</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037995726329598</v>
+        <v>1.047363709493501</v>
       </c>
       <c r="J2">
-        <v>1.038431309000492</v>
+        <v>1.028786430214893</v>
       </c>
       <c r="K2">
-        <v>1.040444022575654</v>
+        <v>1.035178081883907</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.034745672920536</v>
+        <v>0.9957077079529443</v>
       </c>
       <c r="N2">
-        <v>1.016716152168733</v>
+        <v>1.013025554719226</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034416717210054</v>
+        <v>1.01255718356692</v>
       </c>
       <c r="D3">
-        <v>1.038521502404954</v>
+        <v>1.028510808300495</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.033681716798242</v>
+        <v>0.9924702589199167</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038349306449945</v>
+        <v>1.049655894886111</v>
       </c>
       <c r="J3">
-        <v>1.039184009651757</v>
+        <v>1.032711283704727</v>
       </c>
       <c r="K3">
-        <v>1.04112147028148</v>
+        <v>1.038791435130035</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.036294556829217</v>
+        <v>1.003200399512632</v>
       </c>
       <c r="N3">
-        <v>1.016971395930734</v>
+        <v>1.014374211116808</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035134342349869</v>
+        <v>1.01617182142652</v>
       </c>
       <c r="D4">
-        <v>1.039081898456121</v>
+        <v>1.031320132815048</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.034808048075874</v>
+        <v>0.9977734481993598</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038576106959262</v>
+        <v>1.05108312486424</v>
       </c>
       <c r="J4">
-        <v>1.039669350303737</v>
+        <v>1.035170705637833</v>
       </c>
       <c r="K4">
-        <v>1.04155809425172</v>
+        <v>1.041054694016539</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.037295030839944</v>
+        <v>1.007898820230121</v>
       </c>
       <c r="N4">
-        <v>1.017135843460491</v>
+        <v>1.015218874977371</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035435753766698</v>
+        <v>1.017667334050717</v>
       </c>
       <c r="D5">
-        <v>1.039317228672967</v>
+        <v>1.032482669230278</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.035281251253029</v>
+        <v>0.999965978835537</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038670978904319</v>
+        <v>1.051670287397479</v>
       </c>
       <c r="J5">
-        <v>1.039872981343277</v>
+        <v>1.036186337887786</v>
       </c>
       <c r="K5">
-        <v>1.041741238849853</v>
+        <v>1.04198906710826</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.037715218207485</v>
+        <v>1.009840203970964</v>
       </c>
       <c r="N5">
-        <v>1.017204807485787</v>
+        <v>1.015567567818973</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035486345852499</v>
+        <v>1.017917059737094</v>
       </c>
       <c r="D6">
-        <v>1.039356726445964</v>
+        <v>1.032676804298386</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.035360686464047</v>
+        <v>1.000332012353566</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038686880505135</v>
+        <v>1.051768136614519</v>
       </c>
       <c r="J6">
-        <v>1.039907148144727</v>
+        <v>1.03635581810967</v>
       </c>
       <c r="K6">
-        <v>1.04177196552596</v>
+        <v>1.042144972055818</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.037785745616671</v>
+        <v>1.01016424302381</v>
       </c>
       <c r="N6">
-        <v>1.017216376919929</v>
+        <v>1.015625747666001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03513837091298</v>
+        <v>1.01619189757455</v>
       </c>
       <c r="D7">
-        <v>1.039085043970303</v>
+        <v>1.03133573823825</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.034814372231892</v>
+        <v>0.997802887100006</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038577376507634</v>
+        <v>1.051091020330612</v>
       </c>
       <c r="J7">
-        <v>1.039672072824567</v>
+        <v>1.035184347373772</v>
       </c>
       <c r="K7">
-        <v>1.041560543055642</v>
+        <v>1.041067245324445</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.037300647011725</v>
+        <v>1.007924891462601</v>
       </c>
       <c r="N7">
-        <v>1.017136765627056</v>
+        <v>1.015223559010302</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033681522695562</v>
+        <v>1.008773293252464</v>
       </c>
       <c r="D8">
-        <v>1.037947241347132</v>
+        <v>1.02557084447385</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.032528240233354</v>
+        <v>0.9869119887656</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038115633102962</v>
+        <v>1.048150300551131</v>
       </c>
       <c r="J8">
-        <v>1.038686042659904</v>
+        <v>1.030130026145782</v>
       </c>
       <c r="K8">
-        <v>1.040673328643568</v>
+        <v>1.036415233809174</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.035269494709713</v>
+        <v>0.9982722134348074</v>
       </c>
       <c r="N8">
-        <v>1.016802560952063</v>
+        <v>1.013487327639687</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031105214372021</v>
+        <v>0.9948280727243336</v>
       </c>
       <c r="D9">
-        <v>1.035933807374396</v>
+        <v>1.014746214175928</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.0284892128835</v>
+        <v>0.96634932894453</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037286686531684</v>
+        <v>1.042512259068006</v>
       </c>
       <c r="J9">
-        <v>1.036935345386832</v>
+        <v>1.020564796359993</v>
       </c>
       <c r="K9">
-        <v>1.039096601096069</v>
+        <v>1.027604490550301</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.031676488067223</v>
+        <v>0.9800130262133547</v>
       </c>
       <c r="N9">
-        <v>1.016208158506152</v>
+        <v>1.010198429443117</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029381307295348</v>
+        <v>0.9848472134616633</v>
       </c>
       <c r="D10">
-        <v>1.034585687035092</v>
+        <v>1.007011378325252</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.025788793877226</v>
+        <v>0.9515344544693842</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036723687560284</v>
+        <v>1.03840379609599</v>
       </c>
       <c r="J10">
-        <v>1.035759188245554</v>
+        <v>1.013675197580408</v>
       </c>
       <c r="K10">
-        <v>1.038036346405276</v>
+        <v>1.021255183683407</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.029271277050404</v>
+        <v>0.9668376071683423</v>
       </c>
       <c r="N10">
-        <v>1.015808146868951</v>
+        <v>1.007828139819198</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028633277833727</v>
+        <v>0.9803378070739035</v>
       </c>
       <c r="D11">
-        <v>1.034000523227245</v>
+        <v>1.003520786623013</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.024617508194593</v>
+        <v>0.9448080166308579</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036477424392942</v>
+        <v>1.036530573152165</v>
       </c>
       <c r="J11">
-        <v>1.035247722047239</v>
+        <v>1.010552066525777</v>
       </c>
       <c r="K11">
-        <v>1.037575055037318</v>
+        <v>1.018376610106734</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.028227327885361</v>
+        <v>0.9608516426454765</v>
       </c>
       <c r="N11">
-        <v>1.015634037807649</v>
+        <v>1.006753513724024</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028355186798863</v>
+        <v>0.9786321355608573</v>
       </c>
       <c r="D12">
-        <v>1.033782951497556</v>
+        <v>1.002201185473057</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.024182129973621</v>
+        <v>0.9422578197563178</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036385576821115</v>
+        <v>1.035819510242721</v>
       </c>
       <c r="J12">
-        <v>1.035057409610436</v>
+        <v>1.009369184107765</v>
       </c>
       <c r="K12">
-        <v>1.037403378536868</v>
+        <v>1.01728633539962</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.02783917575818</v>
+        <v>0.9585816864884221</v>
       </c>
       <c r="N12">
-        <v>1.015569229478372</v>
+        <v>1.006346494651166</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028414849180535</v>
+        <v>0.9789994395536998</v>
       </c>
       <c r="D13">
-        <v>1.033829631182558</v>
+        <v>1.002485318488062</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.024275534329493</v>
+        <v>0.9428072715283263</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03640529541059</v>
+        <v>1.035972745759326</v>
       </c>
       <c r="J13">
-        <v>1.035098247310259</v>
+        <v>1.009623980124854</v>
       </c>
       <c r="K13">
-        <v>1.03744021881223</v>
+        <v>1.017521183667817</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.0279224532095</v>
+        <v>0.9590707798577804</v>
       </c>
       <c r="N13">
-        <v>1.015583137277585</v>
+        <v>1.006434167616399</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028610295654337</v>
+        <v>0.9801974570665033</v>
       </c>
       <c r="D14">
-        <v>1.033982543098813</v>
+        <v>1.003412189236974</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.024581526100999</v>
+        <v>0.9445983020480865</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036469839893138</v>
+        <v>1.036472114777381</v>
       </c>
       <c r="J14">
-        <v>1.035231997535388</v>
+        <v>1.010454765685159</v>
       </c>
       <c r="K14">
-        <v>1.037560870999803</v>
+        <v>1.018286927082886</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.028195250983763</v>
+        <v>0.960664983037523</v>
       </c>
       <c r="N14">
-        <v>1.01562868352102</v>
+        <v>1.006720033404978</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028730684801585</v>
+        <v>0.9809314503275894</v>
       </c>
       <c r="D15">
-        <v>1.034076728495985</v>
+        <v>1.003980154033865</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.024770016212842</v>
+        <v>0.9456948059807482</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036509558206249</v>
+        <v>1.036777734254743</v>
       </c>
       <c r="J15">
-        <v>1.035314361489692</v>
+        <v>1.010963559515966</v>
       </c>
       <c r="K15">
-        <v>1.03763516467376</v>
+        <v>1.018755886231225</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.02836327963018</v>
+        <v>0.9616409232543353</v>
       </c>
       <c r="N15">
-        <v>1.015656727949433</v>
+        <v>1.006895104527542</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029430918183405</v>
+        <v>0.9851423295075193</v>
       </c>
       <c r="D16">
-        <v>1.034624492309434</v>
+        <v>1.007239910432966</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.025866485365589</v>
+        <v>0.9519739005622955</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036739978817916</v>
+        <v>1.038526039064106</v>
       </c>
       <c r="J16">
-        <v>1.035793086316502</v>
+        <v>1.013879374133623</v>
       </c>
       <c r="K16">
-        <v>1.038066914336527</v>
+        <v>1.021443367611321</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.02934050741288</v>
+        <v>0.967228604047299</v>
       </c>
       <c r="N16">
-        <v>1.015819682833519</v>
+        <v>1.007898392446002</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029869733735916</v>
+        <v>0.9877318088416601</v>
       </c>
       <c r="D17">
-        <v>1.034967708343003</v>
+        <v>1.009245621146954</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.026553731139904</v>
+        <v>0.9558259668448202</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036883850150624</v>
+        <v>1.039596737611184</v>
       </c>
       <c r="J17">
-        <v>1.036092791187647</v>
+        <v>1.015669738179851</v>
       </c>
       <c r="K17">
-        <v>1.038337150168648</v>
+        <v>1.02309346014171</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.029952825845284</v>
+        <v>0.9706555484272927</v>
       </c>
       <c r="N17">
-        <v>1.015921658063723</v>
+        <v>1.008514402253168</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030125536587242</v>
+        <v>0.9892242886751351</v>
       </c>
       <c r="D18">
-        <v>1.035167763738083</v>
+        <v>1.010402012526925</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.026954399135216</v>
+        <v>0.9580431221599848</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036967528613244</v>
+        <v>1.040212247865764</v>
       </c>
       <c r="J18">
-        <v>1.036267393620047</v>
+        <v>1.016700662776589</v>
       </c>
       <c r="K18">
-        <v>1.038494562644961</v>
+        <v>1.024043577239287</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.030309742574142</v>
+        <v>0.9726276425090303</v>
       </c>
       <c r="N18">
-        <v>1.015981051591528</v>
+        <v>1.00886909705249</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030212733292611</v>
+        <v>0.9897302167806356</v>
       </c>
       <c r="D19">
-        <v>1.035235954349571</v>
+        <v>1.010794072404182</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.027090984563341</v>
+        <v>0.9587942166176718</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036996020277476</v>
+        <v>1.040420624052336</v>
       </c>
       <c r="J19">
-        <v>1.036326892955799</v>
+        <v>1.017049965417071</v>
       </c>
       <c r="K19">
-        <v>1.03854820043653</v>
+        <v>1.024365493088593</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.030431401868368</v>
+        <v>0.9732956533680786</v>
       </c>
       <c r="N19">
-        <v>1.016001288541592</v>
+        <v>1.008989273373345</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029822668613871</v>
+        <v>0.9874558527111289</v>
       </c>
       <c r="D20">
-        <v>1.034930898671711</v>
+        <v>1.009031836636708</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.026480016001666</v>
+        <v>0.9554157807359432</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03686843887829</v>
+        <v>1.039482801298639</v>
       </c>
       <c r="J20">
-        <v>1.036060657473058</v>
+        <v>1.015479043652872</v>
       </c>
       <c r="K20">
-        <v>1.038308178319562</v>
+        <v>1.022917709714109</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.029887154596309</v>
+        <v>0.9702906693203147</v>
       </c>
       <c r="N20">
-        <v>1.015910726082869</v>
+        <v>1.008448791513028</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028552748187388</v>
+        <v>0.9798455391965519</v>
       </c>
       <c r="D21">
-        <v>1.033937520330531</v>
+        <v>1.00313990055793</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.024491427821979</v>
+        <v>0.9440723582279177</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036450843502933</v>
+        <v>1.036325494038488</v>
       </c>
       <c r="J21">
-        <v>1.035192620594355</v>
+        <v>1.01021076538209</v>
       </c>
       <c r="K21">
-        <v>1.037525351134067</v>
+        <v>1.018062029737382</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.028114929496292</v>
+        <v>0.9601968512260551</v>
       </c>
       <c r="N21">
-        <v>1.015615275063302</v>
+        <v>1.006636075126093</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027752910497369</v>
+        <v>0.9748816666744998</v>
       </c>
       <c r="D22">
-        <v>1.033311693824298</v>
+        <v>0.9993010339809222</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.023239320586776</v>
+        <v>0.9366382145560176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036186117292852</v>
+        <v>1.034251395019344</v>
       </c>
       <c r="J22">
-        <v>1.034644933984992</v>
+        <v>1.006765333827944</v>
       </c>
       <c r="K22">
-        <v>1.037031232389386</v>
+        <v>1.014886350253004</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.026998440339686</v>
+        <v>0.9535788161694256</v>
       </c>
       <c r="N22">
-        <v>1.015428723170841</v>
+        <v>1.005450542566694</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028177052621146</v>
+        <v>0.977530991071494</v>
       </c>
       <c r="D23">
-        <v>1.033643575695893</v>
+        <v>1.001349491582528</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.023903261295188</v>
+        <v>0.9406096579924569</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036326659698365</v>
+        <v>1.03535975680957</v>
       </c>
       <c r="J23">
-        <v>1.0349354558538</v>
+        <v>1.008605097997555</v>
       </c>
       <c r="K23">
-        <v>1.037293357392137</v>
+        <v>1.016582069237976</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.027590526510456</v>
+        <v>0.957114513750091</v>
       </c>
       <c r="N23">
-        <v>1.015527693105143</v>
+        <v>1.006083580171015</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029843935782455</v>
+        <v>0.9875806006012136</v>
       </c>
       <c r="D24">
-        <v>1.034947531800023</v>
+        <v>1.009128478258312</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.938164042401182</v>
       </c>
       <c r="F24">
-        <v>1.02651332528816</v>
+        <v>0.9556012175703869</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036875403308039</v>
+        <v>1.039534311975847</v>
       </c>
       <c r="J24">
-        <v>1.03607517796525</v>
+        <v>1.015565251468638</v>
       </c>
       <c r="K24">
-        <v>1.038321270104479</v>
+        <v>1.022997161824793</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.029916829342122</v>
+        <v>0.9704556249373505</v>
       </c>
       <c r="N24">
-        <v>1.015915666042904</v>
+        <v>1.008478452394258</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031772358571091</v>
+        <v>0.9985460331005849</v>
       </c>
       <c r="D25">
-        <v>1.036455346491991</v>
+        <v>1.017630375392341</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718021</v>
       </c>
       <c r="F25">
-        <v>1.029534715221714</v>
+        <v>0.9718454023412306</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037502810292104</v>
+        <v>1.044028025923076</v>
       </c>
       <c r="J25">
-        <v>1.037389521592881</v>
+        <v>1.02312242830354</v>
       </c>
       <c r="K25">
-        <v>1.039505817631164</v>
+        <v>1.029961031332689</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.9598754494005834</v>
       </c>
       <c r="M25">
-        <v>1.032607065576322</v>
+        <v>0.9848970937840444</v>
       </c>
       <c r="N25">
-        <v>1.016362481773597</v>
+        <v>1.011078131463704</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006807439406377</v>
+        <v>1.01430535039034</v>
       </c>
       <c r="D2">
-        <v>1.024043853919197</v>
+        <v>1.03480615203372</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>1.029974574212251</v>
       </c>
       <c r="F2">
-        <v>0.9840211809686896</v>
+        <v>1.039517753234439</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047363709493501</v>
+        <v>1.05331688246728</v>
       </c>
       <c r="J2">
-        <v>1.028786430214893</v>
+        <v>1.036066450275683</v>
       </c>
       <c r="K2">
-        <v>1.035178081883907</v>
+        <v>1.045800978045416</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>1.041031531790389</v>
       </c>
       <c r="M2">
-        <v>0.9957077079529443</v>
+        <v>1.050452684813654</v>
       </c>
       <c r="N2">
-        <v>1.013025554719226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015929245333933</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048502262605097</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043455533779916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01255718356692</v>
+        <v>1.017467948801428</v>
       </c>
       <c r="D3">
-        <v>1.028510808300495</v>
+        <v>1.036971681996981</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>1.032823789697385</v>
       </c>
       <c r="F3">
-        <v>0.9924702589199167</v>
+        <v>1.042055448908374</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049655894886111</v>
+        <v>1.054098962661968</v>
       </c>
       <c r="J3">
-        <v>1.032711283704727</v>
+        <v>1.037493487713251</v>
       </c>
       <c r="K3">
-        <v>1.038791435130035</v>
+        <v>1.047152387090942</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>1.04305322748401</v>
       </c>
       <c r="M3">
-        <v>1.003200399512632</v>
+        <v>1.052177079722418</v>
       </c>
       <c r="N3">
-        <v>1.014374211116808</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016405492921867</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049866989372082</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044408436212015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01617182142652</v>
+        <v>1.019481304437447</v>
       </c>
       <c r="D4">
-        <v>1.031320132815048</v>
+        <v>1.038353855697652</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>1.034647008898959</v>
       </c>
       <c r="F4">
-        <v>0.9977734481993598</v>
+        <v>1.043678212658053</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05108312486424</v>
+        <v>1.054587668692564</v>
       </c>
       <c r="J4">
-        <v>1.035170705637833</v>
+        <v>1.038399471589042</v>
       </c>
       <c r="K4">
-        <v>1.041054694016539</v>
+        <v>1.048010412847676</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>1.044344512453756</v>
       </c>
       <c r="M4">
-        <v>1.007898820230121</v>
+        <v>1.053276580660576</v>
       </c>
       <c r="N4">
-        <v>1.015218874977371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016707939200522</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050737159020043</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045016014958028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017667334050717</v>
+        <v>1.020322483547915</v>
       </c>
       <c r="D5">
-        <v>1.032482669230278</v>
+        <v>1.038933882296256</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.035410777736911</v>
       </c>
       <c r="F5">
-        <v>0.999965978835537</v>
+        <v>1.044358133378407</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051670287397479</v>
+        <v>1.054790940865093</v>
       </c>
       <c r="J5">
-        <v>1.036186337887786</v>
+        <v>1.038778682312431</v>
       </c>
       <c r="K5">
-        <v>1.04198906710826</v>
+        <v>1.048370659559184</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.044885444033938</v>
       </c>
       <c r="M5">
-        <v>1.009840203970964</v>
+        <v>1.053737187305879</v>
       </c>
       <c r="N5">
-        <v>1.015567567818973</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016834802434953</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051101693125923</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045277855807496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017917059737094</v>
+        <v>1.02046629551404</v>
       </c>
       <c r="D6">
-        <v>1.032676804298386</v>
+        <v>1.039035188439122</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>1.035541240447076</v>
       </c>
       <c r="F6">
-        <v>1.000332012353566</v>
+        <v>1.044474737878257</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051768136614519</v>
+        <v>1.054827175066834</v>
       </c>
       <c r="J6">
-        <v>1.03635581810967</v>
+        <v>1.038845066704323</v>
       </c>
       <c r="K6">
-        <v>1.042144972055818</v>
+        <v>1.048435054360832</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>1.044978511172637</v>
       </c>
       <c r="M6">
-        <v>1.01016424302381</v>
+        <v>1.053816979262303</v>
       </c>
       <c r="N6">
-        <v>1.015625747666001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016857315038188</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.0511648421957</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045332070358955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01619189757455</v>
+        <v>1.019500680079564</v>
       </c>
       <c r="D7">
-        <v>1.03133573823825</v>
+        <v>1.038372804351725</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.034663953451286</v>
       </c>
       <c r="F7">
-        <v>0.997802887100006</v>
+        <v>1.043694560566891</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051091020330612</v>
+        <v>1.054596674222469</v>
       </c>
       <c r="J7">
-        <v>1.035184347373772</v>
+        <v>1.03841246350451</v>
       </c>
       <c r="K7">
-        <v>1.041067245324445</v>
+        <v>1.04802629950003</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.044358401762365</v>
       </c>
       <c r="M7">
-        <v>1.007924891462601</v>
+        <v>1.053289916747699</v>
       </c>
       <c r="N7">
-        <v>1.015223559010302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016713106599373</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050747713491618</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045047218113323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008773293252464</v>
+        <v>1.015391170328471</v>
       </c>
       <c r="D8">
-        <v>1.02557084447385</v>
+        <v>1.035555753614462</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>1.030950181266407</v>
       </c>
       <c r="F8">
-        <v>0.9869119887656</v>
+        <v>1.040388370294806</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048150300551131</v>
+        <v>1.053592525874554</v>
       </c>
       <c r="J8">
-        <v>1.030130026145782</v>
+        <v>1.036562136678396</v>
       </c>
       <c r="K8">
-        <v>1.036415233809174</v>
+        <v>1.046274711206962</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>1.041726618211418</v>
       </c>
       <c r="M8">
-        <v>0.9982722134348074</v>
+        <v>1.05104769559164</v>
       </c>
       <c r="N8">
-        <v>1.013487327639687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016095716399999</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.0489731684395</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043813249697708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9948280727243336</v>
+        <v>1.007874513623817</v>
       </c>
       <c r="D9">
-        <v>1.014746214175928</v>
+        <v>1.030423772406629</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923921</v>
+        <v>1.024233237707803</v>
       </c>
       <c r="F9">
-        <v>0.96634932894453</v>
+        <v>1.034398248337879</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042512259068006</v>
+        <v>1.0516780486943</v>
       </c>
       <c r="J9">
-        <v>1.020564796359993</v>
+        <v>1.033152234405209</v>
       </c>
       <c r="K9">
-        <v>1.027604490550301</v>
+        <v>1.043041802972085</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832515</v>
+        <v>1.036945012650214</v>
       </c>
       <c r="M9">
-        <v>0.9800130262133547</v>
+        <v>1.046956844806913</v>
       </c>
       <c r="N9">
-        <v>1.010198429443117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014957320485909</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045735564727457</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041524247806695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9848472134616633</v>
+        <v>1.002716258134703</v>
       </c>
       <c r="D10">
-        <v>1.007011378325252</v>
+        <v>1.026945274712299</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547276</v>
+        <v>1.019728954029743</v>
       </c>
       <c r="F10">
-        <v>0.9515344544693842</v>
+        <v>1.030397730040578</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03840379609599</v>
+        <v>1.050336947215523</v>
       </c>
       <c r="J10">
-        <v>1.013675197580408</v>
+        <v>1.030822520015922</v>
       </c>
       <c r="K10">
-        <v>1.021255183683407</v>
+        <v>1.040844489762055</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689353</v>
+        <v>1.033750904188443</v>
       </c>
       <c r="M10">
-        <v>0.9668376071683423</v>
+        <v>1.044239009208167</v>
       </c>
       <c r="N10">
-        <v>1.007828139819198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014183547321121</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043635710879315</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039987337744082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9803378070739035</v>
+        <v>1.000766500990334</v>
       </c>
       <c r="D11">
-        <v>1.003520786623013</v>
+        <v>1.025802245375025</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016261</v>
+        <v>1.018468409124191</v>
       </c>
       <c r="F11">
-        <v>0.9448080166308579</v>
+        <v>1.029450516195655</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036530573152165</v>
+        <v>1.04996167203993</v>
       </c>
       <c r="J11">
-        <v>1.010552066525777</v>
+        <v>1.030107427354199</v>
       </c>
       <c r="K11">
-        <v>1.018376610106734</v>
+        <v>1.040253439126005</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416576</v>
+        <v>1.033050244864688</v>
       </c>
       <c r="M11">
-        <v>0.9608516426454765</v>
+        <v>1.043837619166944</v>
       </c>
       <c r="N11">
-        <v>1.006753513724024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013973664237112</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043751627157412</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039602086713355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9786321355608573</v>
+        <v>1.000152411759813</v>
       </c>
       <c r="D12">
-        <v>1.002201185473057</v>
+        <v>1.025509944218821</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411973</v>
+        <v>1.01826032629199</v>
       </c>
       <c r="F12">
-        <v>0.9422578197563178</v>
+        <v>1.029392104099115</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035819510242721</v>
+        <v>1.049898755522585</v>
       </c>
       <c r="J12">
-        <v>1.009369184107765</v>
+        <v>1.029950322646865</v>
       </c>
       <c r="K12">
-        <v>1.01728633539962</v>
+        <v>1.040164206729955</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>1.033045854168565</v>
       </c>
       <c r="M12">
-        <v>0.9585816864884221</v>
+        <v>1.043977060594156</v>
       </c>
       <c r="N12">
-        <v>1.006346494651166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013942582293306</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.04418649207412</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039538997254372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9789994395536998</v>
+        <v>1.000535808584441</v>
       </c>
       <c r="D13">
-        <v>1.002485318488062</v>
+        <v>1.025867249006619</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>1.018860259398207</v>
       </c>
       <c r="F13">
-        <v>0.9428072715283263</v>
+        <v>1.030031708746002</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035972745759326</v>
+        <v>1.050084860292275</v>
       </c>
       <c r="J13">
-        <v>1.009623980124854</v>
+        <v>1.030224971172621</v>
       </c>
       <c r="K13">
-        <v>1.017521183667817</v>
+        <v>1.040472675473534</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.03359198035145</v>
       </c>
       <c r="M13">
-        <v>0.9590707798577804</v>
+        <v>1.044563130497141</v>
       </c>
       <c r="N13">
-        <v>1.006434167616399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01405249324658</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04492516683153</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039754615145267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9801974570665033</v>
+        <v>1.001257136199501</v>
       </c>
       <c r="D14">
-        <v>1.003412189236974</v>
+        <v>1.026412941237623</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>1.019645603193925</v>
       </c>
       <c r="F14">
-        <v>0.9445983020480865</v>
+        <v>1.030795720148418</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036472114777381</v>
+        <v>1.050328280923172</v>
       </c>
       <c r="J14">
-        <v>1.010454765685159</v>
+        <v>1.03061328964761</v>
       </c>
       <c r="K14">
-        <v>1.018286927082886</v>
+        <v>1.040869704657342</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>1.034222800422987</v>
       </c>
       <c r="M14">
-        <v>0.960664983037523</v>
+        <v>1.045175578767865</v>
       </c>
       <c r="N14">
-        <v>1.006720033404978</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01419354774712</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045581844591418</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040036740074981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9809314503275894</v>
+        <v>1.001653455621437</v>
       </c>
       <c r="D15">
-        <v>1.003980154033865</v>
+        <v>1.026693814963696</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717477</v>
+        <v>1.02002273999242</v>
       </c>
       <c r="F15">
-        <v>0.9456948059807482</v>
+        <v>1.031146273767021</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036777734254743</v>
+        <v>1.050445648741934</v>
       </c>
       <c r="J15">
-        <v>1.010963559515966</v>
+        <v>1.030806936720286</v>
       </c>
       <c r="K15">
-        <v>1.018755886231225</v>
+        <v>1.041060058777021</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767195</v>
+        <v>1.034506796582684</v>
       </c>
       <c r="M15">
-        <v>0.9616409232543353</v>
+        <v>1.045434983608755</v>
       </c>
       <c r="N15">
-        <v>1.006895104527542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014260659192263</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045824260630596</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040177158515631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9851423295075193</v>
+        <v>1.003761508763889</v>
       </c>
       <c r="D16">
-        <v>1.007239910432966</v>
+        <v>1.028101469787408</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017262</v>
+        <v>1.021820852878525</v>
       </c>
       <c r="F16">
-        <v>0.9519739005622955</v>
+        <v>1.032740319027303</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038526039064106</v>
+        <v>1.05099442641024</v>
       </c>
       <c r="J16">
-        <v>1.013879374133623</v>
+        <v>1.031750367406062</v>
       </c>
       <c r="K16">
-        <v>1.021443367611321</v>
+        <v>1.041945982514156</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175719</v>
+        <v>1.035771438761059</v>
       </c>
       <c r="M16">
-        <v>0.967228604047299</v>
+        <v>1.046507552730519</v>
       </c>
       <c r="N16">
-        <v>1.007898392446002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014570987695304</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046633467360068</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040806678486585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9877318088416601</v>
+        <v>1.00500286894532</v>
       </c>
       <c r="D17">
-        <v>1.009245621146954</v>
+        <v>1.028896863919069</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>1.02278941472873</v>
       </c>
       <c r="F17">
-        <v>0.9558259668448202</v>
+        <v>1.03355995649558</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039596737611184</v>
+        <v>1.05128545551871</v>
       </c>
       <c r="J17">
-        <v>1.015669738179851</v>
+        <v>1.032270142586815</v>
       </c>
       <c r="K17">
-        <v>1.02309346014171</v>
+        <v>1.042416511690676</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>1.036409323256697</v>
       </c>
       <c r="M17">
-        <v>0.9706555484272927</v>
+        <v>1.04700407787639</v>
       </c>
       <c r="N17">
-        <v>1.008514402253168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014734906670524</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046897484135039</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041141928857876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9892242886751351</v>
+        <v>1.005607096343369</v>
       </c>
       <c r="D18">
-        <v>1.010402012526925</v>
+        <v>1.029221016431202</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215681</v>
+        <v>1.023101505115763</v>
       </c>
       <c r="F18">
-        <v>0.9580431221599848</v>
+        <v>1.033749717380131</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040212247865764</v>
+        <v>1.051372828019286</v>
       </c>
       <c r="J18">
-        <v>1.016700662776589</v>
+        <v>1.032459935189209</v>
       </c>
       <c r="K18">
-        <v>1.024043577239287</v>
+        <v>1.042553724836709</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865724</v>
+        <v>1.036533045000471</v>
       </c>
       <c r="M18">
-        <v>0.9726276425090303</v>
+        <v>1.047010251197862</v>
       </c>
       <c r="N18">
-        <v>1.00886909705249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014782192886849</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04666589625937</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041227381578462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9897302167806356</v>
+        <v>1.005642348054173</v>
       </c>
       <c r="D19">
-        <v>1.010794072404182</v>
+        <v>1.029131570457285</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684961</v>
+        <v>1.022822421742234</v>
       </c>
       <c r="F19">
-        <v>0.9587942166176718</v>
+        <v>1.033374122894122</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040420624052336</v>
+        <v>1.051284983903782</v>
       </c>
       <c r="J19">
-        <v>1.017049965417071</v>
+        <v>1.032360484573554</v>
       </c>
       <c r="K19">
-        <v>1.024365493088593</v>
+        <v>1.042403760188903</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816586</v>
+        <v>1.036196009483813</v>
       </c>
       <c r="M19">
-        <v>0.9732956533680786</v>
+        <v>1.046579019385748</v>
       </c>
       <c r="N19">
-        <v>1.008989273373345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014729250333318</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046001306141047</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041127706781907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9874558527111289</v>
+        <v>1.004072117479009</v>
       </c>
       <c r="D20">
-        <v>1.009031836636708</v>
+        <v>1.02787243316752</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.0209111547082</v>
       </c>
       <c r="F20">
-        <v>0.9554157807359432</v>
+        <v>1.031451673372602</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039482801298639</v>
+        <v>1.050703535726073</v>
       </c>
       <c r="J20">
-        <v>1.015479043652872</v>
+        <v>1.031446963311053</v>
       </c>
       <c r="K20">
-        <v>1.022917709714109</v>
+        <v>1.041442267229307</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.03459600943477</v>
       </c>
       <c r="M20">
-        <v>0.9702906693203147</v>
+        <v>1.044963144126299</v>
       </c>
       <c r="N20">
-        <v>1.008448791513028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014393407094177</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044198299868322</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.04045179729915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9798455391965519</v>
+        <v>1.00014317950055</v>
       </c>
       <c r="D21">
-        <v>1.00313990055793</v>
+        <v>1.025196672675491</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.017416611526556</v>
       </c>
       <c r="F21">
-        <v>0.9440723582279177</v>
+        <v>1.028311550768728</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036325494038488</v>
+        <v>1.049637710316205</v>
       </c>
       <c r="J21">
-        <v>1.01021076538209</v>
+        <v>1.029634915657693</v>
       </c>
       <c r="K21">
-        <v>1.018062029737382</v>
+        <v>1.039715909248891</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>1.032075366518245</v>
       </c>
       <c r="M21">
-        <v>0.9601968512260551</v>
+        <v>1.042775696046653</v>
       </c>
       <c r="N21">
-        <v>1.006636075126093</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013786403385162</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.0424264821474</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039234415804862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9748816666744998</v>
+        <v>0.9976409458804139</v>
       </c>
       <c r="D22">
-        <v>0.9993010339809222</v>
+        <v>1.023502508769689</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>1.01522942786661</v>
       </c>
       <c r="F22">
-        <v>0.9366382145560176</v>
+        <v>1.026355016363566</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034251395019344</v>
+        <v>1.048954625092272</v>
       </c>
       <c r="J22">
-        <v>1.006765333827944</v>
+        <v>1.028485030425867</v>
       </c>
       <c r="K22">
-        <v>1.014886350253004</v>
+        <v>1.038622324791278</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>1.030505105916189</v>
       </c>
       <c r="M22">
-        <v>0.9535788161694256</v>
+        <v>1.041421851580816</v>
       </c>
       <c r="N22">
-        <v>1.005450542566694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013401923805906</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.0413550070872</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038447784697434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.977530991071494</v>
+        <v>0.9989643825521518</v>
       </c>
       <c r="D23">
-        <v>1.001349491582528</v>
+        <v>1.024393284684389</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>1.016385228816771</v>
       </c>
       <c r="F23">
-        <v>0.9406096579924569</v>
+        <v>1.027388293025811</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03535975680957</v>
+        <v>1.049313283093613</v>
       </c>
       <c r="J23">
-        <v>1.008605097997555</v>
+        <v>1.02908974683908</v>
       </c>
       <c r="K23">
-        <v>1.016582069237976</v>
+        <v>1.039194521194511</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>1.031333470982283</v>
       </c>
       <c r="M23">
-        <v>0.957114513750091</v>
+        <v>1.042135314899778</v>
       </c>
       <c r="N23">
-        <v>1.006083580171015</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013603240425539</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041919664578748</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038842769089382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9875806006012136</v>
+        <v>1.004093625213507</v>
       </c>
       <c r="D24">
-        <v>1.009128478258312</v>
+        <v>1.027863639115211</v>
       </c>
       <c r="E24">
-        <v>0.938164042401182</v>
+        <v>1.020888355917223</v>
       </c>
       <c r="F24">
-        <v>0.9556012175703869</v>
+        <v>1.031412908399985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039534311975847</v>
+        <v>1.050690193572207</v>
       </c>
       <c r="J24">
-        <v>1.015565251468638</v>
+        <v>1.031434999952123</v>
       </c>
       <c r="K24">
-        <v>1.022997161824793</v>
+        <v>1.041418490739165</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.034558316625481</v>
       </c>
       <c r="M24">
-        <v>0.9704556249373505</v>
+        <v>1.0449099559822</v>
       </c>
       <c r="N24">
-        <v>1.008478452394258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014385641698247</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044115599328408</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04040774861866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9985460331005849</v>
+        <v>1.009862870449663</v>
       </c>
       <c r="D25">
-        <v>1.017630375392341</v>
+        <v>1.031786179577322</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718021</v>
+        <v>1.02600050825929</v>
       </c>
       <c r="F25">
-        <v>0.9718454023412306</v>
+        <v>1.035976885950232</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044028025923076</v>
+        <v>1.052198997383059</v>
       </c>
       <c r="J25">
-        <v>1.02312242830354</v>
+        <v>1.034062808365584</v>
       </c>
       <c r="K25">
-        <v>1.029961031332689</v>
+        <v>1.043910310738189</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005834</v>
+        <v>1.038208175640891</v>
       </c>
       <c r="M25">
-        <v>0.9848970937840444</v>
+        <v>1.048041246680365</v>
       </c>
       <c r="N25">
-        <v>1.011078131463704</v>
+        <v>1.015262627182581</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046593789427678</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042166728954723</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01430535039034</v>
+        <v>1.013476877447948</v>
       </c>
       <c r="D2">
-        <v>1.03480615203372</v>
+        <v>1.03336935140407</v>
       </c>
       <c r="E2">
-        <v>1.029974574212251</v>
+        <v>1.029300076831597</v>
       </c>
       <c r="F2">
-        <v>1.039517753234439</v>
+        <v>1.03862603772428</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05331688246728</v>
+        <v>1.052565406647541</v>
       </c>
       <c r="J2">
-        <v>1.036066450275683</v>
+        <v>1.035261835909283</v>
       </c>
       <c r="K2">
-        <v>1.045800978045416</v>
+        <v>1.044382578039063</v>
       </c>
       <c r="L2">
-        <v>1.041031531790389</v>
+        <v>1.040365766158969</v>
       </c>
       <c r="M2">
-        <v>1.050452684813654</v>
+        <v>1.049572252851742</v>
       </c>
       <c r="N2">
-        <v>1.015929245333933</v>
+        <v>1.016558550624221</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048502262605097</v>
+        <v>1.04780546703549</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043455533779916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042461333594265</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023835468343598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017467948801428</v>
+        <v>1.016537798457005</v>
       </c>
       <c r="D3">
-        <v>1.036971681996981</v>
+        <v>1.035399934562047</v>
       </c>
       <c r="E3">
-        <v>1.032823789697385</v>
+        <v>1.032079535995037</v>
       </c>
       <c r="F3">
-        <v>1.042055448908374</v>
+        <v>1.041076956922804</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054098962661968</v>
+        <v>1.053269687645562</v>
       </c>
       <c r="J3">
-        <v>1.037493487713251</v>
+        <v>1.036587559003435</v>
       </c>
       <c r="K3">
-        <v>1.047152387090942</v>
+        <v>1.045599048917039</v>
       </c>
       <c r="L3">
-        <v>1.04305322748401</v>
+        <v>1.042317769194579</v>
       </c>
       <c r="M3">
-        <v>1.052177079722418</v>
+        <v>1.05120990258264</v>
       </c>
       <c r="N3">
-        <v>1.016405492921867</v>
+        <v>1.01690969105267</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049866989372082</v>
+        <v>1.049101542900037</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044408436212015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043318550424573</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024061588372835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019481304437447</v>
+        <v>1.018486938651404</v>
       </c>
       <c r="D4">
-        <v>1.038353855697652</v>
+        <v>1.036696531188054</v>
       </c>
       <c r="E4">
-        <v>1.034647008898959</v>
+        <v>1.033858779280735</v>
       </c>
       <c r="F4">
-        <v>1.043678212658053</v>
+        <v>1.042644796155286</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054587668692564</v>
+        <v>1.05370898012801</v>
       </c>
       <c r="J4">
-        <v>1.038399471589042</v>
+        <v>1.037429283876668</v>
       </c>
       <c r="K4">
-        <v>1.048010412847676</v>
+        <v>1.046371350915861</v>
       </c>
       <c r="L4">
-        <v>1.044344512453756</v>
+        <v>1.043565036304346</v>
       </c>
       <c r="M4">
-        <v>1.053276580660576</v>
+        <v>1.052254401177824</v>
       </c>
       <c r="N4">
-        <v>1.016707939200522</v>
+        <v>1.017132731696883</v>
       </c>
       <c r="O4">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P4">
-        <v>1.050737159020043</v>
+        <v>1.049928183335407</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045016014958028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043865599500268</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024202827361187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020322483547915</v>
+        <v>1.019301409647256</v>
       </c>
       <c r="D5">
-        <v>1.038933882296256</v>
+        <v>1.03724094157962</v>
       </c>
       <c r="E5">
-        <v>1.035410777736911</v>
+        <v>1.034604284558091</v>
       </c>
       <c r="F5">
-        <v>1.044358133378407</v>
+        <v>1.043301867424251</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054790940865093</v>
+        <v>1.053891657850057</v>
       </c>
       <c r="J5">
-        <v>1.038778682312431</v>
+        <v>1.037781709057297</v>
       </c>
       <c r="K5">
-        <v>1.048370659559184</v>
+        <v>1.04669588611091</v>
       </c>
       <c r="L5">
-        <v>1.044885444033938</v>
+        <v>1.044087668750635</v>
       </c>
       <c r="M5">
-        <v>1.053737187305879</v>
+        <v>1.052692104248538</v>
       </c>
       <c r="N5">
-        <v>1.016834802434953</v>
+        <v>1.017226332560244</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051101693125923</v>
+        <v>1.050274591433908</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045277855807496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044102900667514</v>
+      </c>
+      <c r="S5">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T5">
+        <v>1.024262045060296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02046629551404</v>
+        <v>1.019440666813475</v>
       </c>
       <c r="D6">
-        <v>1.039035188439122</v>
+        <v>1.037336236593906</v>
       </c>
       <c r="E6">
-        <v>1.035541240447076</v>
+        <v>1.034731641433183</v>
       </c>
       <c r="F6">
-        <v>1.044474737878257</v>
+        <v>1.043414599513597</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054827175066834</v>
+        <v>1.053924401857691</v>
       </c>
       <c r="J6">
-        <v>1.038845066704323</v>
+        <v>1.03784352419947</v>
       </c>
       <c r="K6">
-        <v>1.048435054360832</v>
+        <v>1.046754252260574</v>
       </c>
       <c r="L6">
-        <v>1.044978511172637</v>
+        <v>1.044177623582462</v>
       </c>
       <c r="M6">
-        <v>1.053816979262303</v>
+        <v>1.05276801395425</v>
       </c>
       <c r="N6">
-        <v>1.016857315038188</v>
+        <v>1.017242984688747</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.0511648421957</v>
+        <v>1.050334668073562</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045332070358955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044153720715718</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024273185221249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019500680079564</v>
+        <v>1.018512205842764</v>
       </c>
       <c r="D7">
-        <v>1.038372804351725</v>
+        <v>1.036719222017984</v>
       </c>
       <c r="E7">
-        <v>1.034663953451286</v>
+        <v>1.03387840142796</v>
       </c>
       <c r="F7">
-        <v>1.043694560566891</v>
+        <v>1.042664068459704</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054596674222469</v>
+        <v>1.053720874102719</v>
       </c>
       <c r="J7">
-        <v>1.03841246350451</v>
+        <v>1.037448013920974</v>
       </c>
       <c r="K7">
-        <v>1.04802629950003</v>
+        <v>1.046390931546054</v>
       </c>
       <c r="L7">
-        <v>1.044358401762365</v>
+        <v>1.043581570187859</v>
       </c>
       <c r="M7">
-        <v>1.053289916747699</v>
+        <v>1.052270625669137</v>
       </c>
       <c r="N7">
-        <v>1.016713106599373</v>
+        <v>1.017164078594011</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050747713491618</v>
+        <v>1.049941023767237</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045047218113323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043901411878128</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02420836248043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015391170328471</v>
+        <v>1.014547531440656</v>
       </c>
       <c r="D8">
-        <v>1.035555753614462</v>
+        <v>1.034086111789502</v>
       </c>
       <c r="E8">
-        <v>1.030950181266407</v>
+        <v>1.030261171312028</v>
       </c>
       <c r="F8">
-        <v>1.040388370294806</v>
+        <v>1.039477177120925</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053592525874554</v>
+        <v>1.05282441203038</v>
       </c>
       <c r="J8">
-        <v>1.036562136678396</v>
+        <v>1.035741995116735</v>
       </c>
       <c r="K8">
-        <v>1.046274711206962</v>
+        <v>1.044823341786066</v>
       </c>
       <c r="L8">
-        <v>1.041726618211418</v>
+        <v>1.041046262485661</v>
       </c>
       <c r="M8">
-        <v>1.05104769559164</v>
+        <v>1.05014769335466</v>
       </c>
       <c r="N8">
-        <v>1.016095716399999</v>
+        <v>1.016764751180339</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.0489731684395</v>
+        <v>1.048260884916304</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043813249697708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042798004006378</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023921262028996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007874513623817</v>
+        <v>1.007278470910597</v>
       </c>
       <c r="D9">
-        <v>1.030423772406629</v>
+        <v>1.029278459611665</v>
       </c>
       <c r="E9">
-        <v>1.024233237707803</v>
+        <v>1.02371414847773</v>
       </c>
       <c r="F9">
-        <v>1.034398248337879</v>
+        <v>1.033696589710919</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.0516780486943</v>
+        <v>1.051096778254707</v>
       </c>
       <c r="J9">
-        <v>1.033152234405209</v>
+        <v>1.032576799967116</v>
       </c>
       <c r="K9">
-        <v>1.043041802972085</v>
+        <v>1.041913725598361</v>
       </c>
       <c r="L9">
-        <v>1.036945012650214</v>
+        <v>1.036433849786888</v>
       </c>
       <c r="M9">
-        <v>1.046956844806913</v>
+        <v>1.046265636494859</v>
       </c>
       <c r="N9">
-        <v>1.014957320485909</v>
+        <v>1.015935617626166</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045735564727457</v>
+        <v>1.045188523424709</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041524247806695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040737303944692</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023366131414784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002716258134703</v>
+        <v>1.002319251981115</v>
       </c>
       <c r="D10">
-        <v>1.026945274712299</v>
+        <v>1.026040710932047</v>
       </c>
       <c r="E10">
-        <v>1.019728954029743</v>
+        <v>1.019340754715364</v>
       </c>
       <c r="F10">
-        <v>1.030397730040578</v>
+        <v>1.029854526422878</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050336947215523</v>
+        <v>1.049897070065034</v>
       </c>
       <c r="J10">
-        <v>1.030822520015922</v>
+        <v>1.030441153568503</v>
       </c>
       <c r="K10">
-        <v>1.040844489762055</v>
+        <v>1.039955188689126</v>
       </c>
       <c r="L10">
-        <v>1.033750904188443</v>
+        <v>1.033369371035913</v>
       </c>
       <c r="M10">
-        <v>1.044239009208167</v>
+        <v>1.04370488793998</v>
       </c>
       <c r="N10">
-        <v>1.014183547321121</v>
+        <v>1.01548909673811</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043635710879315</v>
+        <v>1.043213017452152</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039987337744082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039370896748463</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022987975348482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000766500990334</v>
+        <v>1.000469651421579</v>
       </c>
       <c r="D11">
-        <v>1.025802245375025</v>
+        <v>1.024996048952826</v>
       </c>
       <c r="E11">
-        <v>1.018468409124191</v>
+        <v>1.018131497950759</v>
       </c>
       <c r="F11">
-        <v>1.029450516195655</v>
+        <v>1.028973916748965</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04996167203993</v>
+        <v>1.049583941302417</v>
       </c>
       <c r="J11">
-        <v>1.030107427354199</v>
+        <v>1.029822905389072</v>
       </c>
       <c r="K11">
-        <v>1.040253439126005</v>
+        <v>1.039461485339559</v>
       </c>
       <c r="L11">
-        <v>1.033050244864688</v>
+        <v>1.032719394053724</v>
       </c>
       <c r="M11">
-        <v>1.043837619166944</v>
+        <v>1.043369358919166</v>
       </c>
       <c r="N11">
-        <v>1.013973664237112</v>
+        <v>1.015572026526143</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043751627157412</v>
+        <v>1.043381239062168</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039602086713355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039057687039459</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022930802855002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000152411759813</v>
+        <v>0.9998845555086637</v>
       </c>
       <c r="D12">
-        <v>1.025509944218821</v>
+        <v>1.024728719884438</v>
       </c>
       <c r="E12">
-        <v>1.01826032629199</v>
+        <v>1.017932565013273</v>
       </c>
       <c r="F12">
-        <v>1.029392104099115</v>
+        <v>1.028932181418205</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049898755522585</v>
+        <v>1.049537692126692</v>
       </c>
       <c r="J12">
-        <v>1.029950322646865</v>
+        <v>1.029693801956583</v>
       </c>
       <c r="K12">
-        <v>1.040164206729955</v>
+        <v>1.039397011627677</v>
       </c>
       <c r="L12">
-        <v>1.033045854168565</v>
+        <v>1.032724085024981</v>
       </c>
       <c r="M12">
-        <v>1.043977060594156</v>
+        <v>1.04352531321158</v>
       </c>
       <c r="N12">
-        <v>1.013942582293306</v>
+        <v>1.0156530801428</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04418649207412</v>
+        <v>1.04382928509255</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039538997254372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039012103450088</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022944959587653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000535808584441</v>
+        <v>1.000234987270907</v>
       </c>
       <c r="D13">
-        <v>1.025867249006619</v>
+        <v>1.02505013376077</v>
       </c>
       <c r="E13">
-        <v>1.018860259398207</v>
+        <v>1.0185064363529</v>
       </c>
       <c r="F13">
-        <v>1.030031708746002</v>
+        <v>1.029546903141848</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050084860292275</v>
+        <v>1.049702113312251</v>
       </c>
       <c r="J13">
-        <v>1.030224971172621</v>
+        <v>1.029936820671268</v>
       </c>
       <c r="K13">
-        <v>1.040472675473534</v>
+        <v>1.039670172463442</v>
       </c>
       <c r="L13">
-        <v>1.03359198035145</v>
+        <v>1.033244594613828</v>
       </c>
       <c r="M13">
-        <v>1.044563130497141</v>
+        <v>1.044086900212698</v>
       </c>
       <c r="N13">
-        <v>1.01405249324658</v>
+        <v>1.015706965897679</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04492516683153</v>
+        <v>1.044548694412296</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039754615145267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03920251164625</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023019707859224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001257136199501</v>
+        <v>1.000905676512375</v>
       </c>
       <c r="D14">
-        <v>1.026412941237623</v>
+        <v>1.025543551613204</v>
       </c>
       <c r="E14">
-        <v>1.019645603193925</v>
+        <v>1.01925860608922</v>
       </c>
       <c r="F14">
-        <v>1.030795720148418</v>
+        <v>1.030275171358198</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050328280923172</v>
+        <v>1.04991324681141</v>
       </c>
       <c r="J14">
-        <v>1.03061328964761</v>
+        <v>1.03027642704226</v>
       </c>
       <c r="K14">
-        <v>1.040869704657342</v>
+        <v>1.040015671576782</v>
       </c>
       <c r="L14">
-        <v>1.034222800422987</v>
+        <v>1.033842753261096</v>
       </c>
       <c r="M14">
-        <v>1.045175578767865</v>
+        <v>1.044664119719199</v>
       </c>
       <c r="N14">
-        <v>1.01419354774712</v>
+        <v>1.015733811122609</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045581844591418</v>
+        <v>1.045177577104289</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040036740074981</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039448337439062</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023099938362813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001653455621437</v>
+        <v>1.001276489440183</v>
       </c>
       <c r="D15">
-        <v>1.026693814963696</v>
+        <v>1.025798499554971</v>
       </c>
       <c r="E15">
-        <v>1.02002273999242</v>
+        <v>1.019620352296783</v>
       </c>
       <c r="F15">
-        <v>1.031146273767021</v>
+        <v>1.030608096937499</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050445648741934</v>
+        <v>1.050014481041203</v>
       </c>
       <c r="J15">
-        <v>1.030806936720286</v>
+        <v>1.030445493121188</v>
       </c>
       <c r="K15">
-        <v>1.041060058777021</v>
+        <v>1.040180439486191</v>
       </c>
       <c r="L15">
-        <v>1.034506796582684</v>
+        <v>1.034111579148852</v>
       </c>
       <c r="M15">
-        <v>1.045434983608755</v>
+        <v>1.044906132391334</v>
       </c>
       <c r="N15">
-        <v>1.014260659192263</v>
+        <v>1.015738839308467</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045824260630596</v>
+        <v>1.045406256966141</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040177158515631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039571234602293</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023134930832187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003761508763889</v>
+        <v>1.003264497846834</v>
       </c>
       <c r="D16">
-        <v>1.028101469787408</v>
+        <v>1.027083047518377</v>
       </c>
       <c r="E16">
-        <v>1.021820852878525</v>
+        <v>1.021350243284198</v>
       </c>
       <c r="F16">
-        <v>1.032740319027303</v>
+        <v>1.032119096007433</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05099442641024</v>
+        <v>1.050486724715545</v>
       </c>
       <c r="J16">
-        <v>1.031750367406062</v>
+        <v>1.031272818447668</v>
       </c>
       <c r="K16">
-        <v>1.041945982514156</v>
+        <v>1.040944646725561</v>
       </c>
       <c r="L16">
-        <v>1.035771438761059</v>
+        <v>1.035308845129864</v>
       </c>
       <c r="M16">
-        <v>1.046507552730519</v>
+        <v>1.045896626856732</v>
       </c>
       <c r="N16">
-        <v>1.014570987695304</v>
+        <v>1.015749753085064</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046633467360068</v>
+        <v>1.04615057827205</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040806678486585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040114997202577</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023279961665252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00500286894532</v>
+        <v>1.004447292459648</v>
       </c>
       <c r="D17">
-        <v>1.028896863919069</v>
+        <v>1.027815979332951</v>
       </c>
       <c r="E17">
-        <v>1.02278941472873</v>
+        <v>1.022286229850538</v>
       </c>
       <c r="F17">
-        <v>1.03355995649558</v>
+        <v>1.032896985091458</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05128545551871</v>
+        <v>1.050739371778866</v>
       </c>
       <c r="J17">
-        <v>1.032270142586815</v>
+        <v>1.031735634055492</v>
       </c>
       <c r="K17">
-        <v>1.042416511690676</v>
+        <v>1.041353259531342</v>
       </c>
       <c r="L17">
-        <v>1.036409323256697</v>
+        <v>1.035914467491837</v>
       </c>
       <c r="M17">
-        <v>1.04700407787639</v>
+        <v>1.046351791007322</v>
       </c>
       <c r="N17">
-        <v>1.014734906670524</v>
+        <v>1.015772338457333</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046897484135039</v>
+        <v>1.046381851446354</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041141928857876</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040406718651737</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023349405772346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005607096343369</v>
+        <v>1.005032595188013</v>
       </c>
       <c r="D18">
-        <v>1.029221016431202</v>
+        <v>1.028119467386922</v>
       </c>
       <c r="E18">
-        <v>1.023101505115763</v>
+        <v>1.02259017557558</v>
       </c>
       <c r="F18">
-        <v>1.033749717380131</v>
+        <v>1.033073150403147</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051372828019286</v>
+        <v>1.050814071120841</v>
       </c>
       <c r="J18">
-        <v>1.032459935189209</v>
+        <v>1.031906816133111</v>
       </c>
       <c r="K18">
-        <v>1.042553724836709</v>
+        <v>1.041469854669393</v>
       </c>
       <c r="L18">
-        <v>1.036533045000471</v>
+        <v>1.036030042346925</v>
       </c>
       <c r="M18">
-        <v>1.047010251197862</v>
+        <v>1.046344415266099</v>
       </c>
       <c r="N18">
-        <v>1.014782192886849</v>
+        <v>1.015765916813867</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04666589625937</v>
+        <v>1.046139444343792</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041227381578462</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040476459400466</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023353126613991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005642348054173</v>
+        <v>1.005079722941351</v>
       </c>
       <c r="D19">
-        <v>1.029131570457285</v>
+        <v>1.028043964879054</v>
       </c>
       <c r="E19">
-        <v>1.022822421742234</v>
+        <v>1.022322951030705</v>
       </c>
       <c r="F19">
-        <v>1.033374122894122</v>
+        <v>1.032707073901272</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051284983903782</v>
+        <v>1.050734393919517</v>
       </c>
       <c r="J19">
-        <v>1.032360484573554</v>
+        <v>1.031818674871916</v>
       </c>
       <c r="K19">
-        <v>1.042403760188903</v>
+        <v>1.041333520331726</v>
       </c>
       <c r="L19">
-        <v>1.036196009483813</v>
+        <v>1.035704634708543</v>
       </c>
       <c r="M19">
-        <v>1.046579019385748</v>
+        <v>1.04592250388742</v>
       </c>
       <c r="N19">
-        <v>1.014729250333318</v>
+        <v>1.015717519495568</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046001306141047</v>
+        <v>1.045482055779053</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041127706781907</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040387046478768</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023301355209951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004072117479009</v>
+        <v>1.003604701142176</v>
       </c>
       <c r="D20">
-        <v>1.02787243316752</v>
+        <v>1.026892877986705</v>
       </c>
       <c r="E20">
-        <v>1.0209111547082</v>
+        <v>1.020479358768792</v>
       </c>
       <c r="F20">
-        <v>1.031451673372602</v>
+        <v>1.03085749637136</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050703535726073</v>
+        <v>1.050217664736667</v>
       </c>
       <c r="J20">
-        <v>1.031446963311053</v>
+        <v>1.03099737132786</v>
       </c>
       <c r="K20">
-        <v>1.041442267229307</v>
+        <v>1.040478775920392</v>
       </c>
       <c r="L20">
-        <v>1.03459600943477</v>
+        <v>1.034171414616903</v>
       </c>
       <c r="M20">
-        <v>1.044963144126299</v>
+        <v>1.044378619773346</v>
       </c>
       <c r="N20">
-        <v>1.014393407094177</v>
+        <v>1.015539724415413</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044198299868322</v>
+        <v>1.04373571288838</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04045179729915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039787001777807</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023091938262846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00014317950055</v>
+        <v>0.9999174289363326</v>
       </c>
       <c r="D21">
-        <v>1.025196672675491</v>
+        <v>1.024462126865931</v>
       </c>
       <c r="E21">
-        <v>1.017416611526556</v>
+        <v>1.017132234662462</v>
       </c>
       <c r="F21">
-        <v>1.028311550768728</v>
+        <v>1.027885740797772</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049637710316205</v>
+        <v>1.04930462482638</v>
       </c>
       <c r="J21">
-        <v>1.029634915657693</v>
+        <v>1.029418602817902</v>
       </c>
       <c r="K21">
-        <v>1.039715909248891</v>
+        <v>1.038994418341015</v>
       </c>
       <c r="L21">
-        <v>1.032075366518245</v>
+        <v>1.03179614192224</v>
       </c>
       <c r="M21">
-        <v>1.042775696046653</v>
+        <v>1.042357391618908</v>
       </c>
       <c r="N21">
-        <v>1.013786403385162</v>
+        <v>1.015535057359617</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.0424264821474</v>
+        <v>1.042095423045539</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039234415804862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038741049705004</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022800865645637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9976409458804139</v>
+        <v>0.9975663951028331</v>
       </c>
       <c r="D22">
-        <v>1.023502508769689</v>
+        <v>1.022921243231777</v>
       </c>
       <c r="E22">
-        <v>1.01522942786661</v>
+        <v>1.015038543651094</v>
       </c>
       <c r="F22">
-        <v>1.026355016363566</v>
+        <v>1.026034643000039</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048954625092272</v>
+        <v>1.048716789269679</v>
       </c>
       <c r="J22">
-        <v>1.028485030425867</v>
+        <v>1.028413774288742</v>
       </c>
       <c r="K22">
-        <v>1.038622324791278</v>
+        <v>1.03805190263542</v>
       </c>
       <c r="L22">
-        <v>1.030505105916189</v>
+        <v>1.030317857120847</v>
       </c>
       <c r="M22">
-        <v>1.041421851580816</v>
+        <v>1.041107409497082</v>
       </c>
       <c r="N22">
-        <v>1.013401923805906</v>
+        <v>1.015524676367322</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.0413550070872</v>
+        <v>1.04110614751255</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038447784697434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038059929138761</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022614722304055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9989643825521518</v>
+        <v>0.9987998495416618</v>
       </c>
       <c r="D23">
-        <v>1.024393284684389</v>
+        <v>1.023724166006648</v>
       </c>
       <c r="E23">
-        <v>1.016385228816771</v>
+        <v>1.016139663058839</v>
       </c>
       <c r="F23">
-        <v>1.027388293025811</v>
+        <v>1.02700699738421</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049313283093613</v>
+        <v>1.049020084733954</v>
       </c>
       <c r="J23">
-        <v>1.02908974683908</v>
+        <v>1.028932275825567</v>
       </c>
       <c r="K23">
-        <v>1.039194521194511</v>
+        <v>1.038537571091783</v>
       </c>
       <c r="L23">
-        <v>1.031333470982283</v>
+        <v>1.03109246088292</v>
       </c>
       <c r="M23">
-        <v>1.042135314899778</v>
+        <v>1.041760898507991</v>
       </c>
       <c r="N23">
-        <v>1.013603240425539</v>
+        <v>1.015486504726371</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041919664578748</v>
+        <v>1.041623339630047</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038842769089382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03839279273959</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022708862724668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004093625213507</v>
+        <v>1.003626824984509</v>
       </c>
       <c r="D24">
-        <v>1.027863639115211</v>
+        <v>1.026884703976418</v>
       </c>
       <c r="E24">
-        <v>1.020888355917223</v>
+        <v>1.020457665406379</v>
       </c>
       <c r="F24">
-        <v>1.031412908399985</v>
+        <v>1.030819316878929</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050690193572207</v>
+        <v>1.050204711474406</v>
       </c>
       <c r="J24">
-        <v>1.031434999952123</v>
+        <v>1.030985974517689</v>
       </c>
       <c r="K24">
-        <v>1.041418490739165</v>
+        <v>1.040455589108858</v>
       </c>
       <c r="L24">
-        <v>1.034558316625481</v>
+        <v>1.034134799997832</v>
       </c>
       <c r="M24">
-        <v>1.0449099559822</v>
+        <v>1.044325996198997</v>
       </c>
       <c r="N24">
-        <v>1.014385641698247</v>
+        <v>1.015530093030527</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044115599328408</v>
+        <v>1.043653436470129</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04040774861866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039740698012776</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02308210064614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009862870449663</v>
+        <v>1.009192890104586</v>
       </c>
       <c r="D25">
-        <v>1.031786179577322</v>
+        <v>1.030549718604869</v>
       </c>
       <c r="E25">
-        <v>1.02600050825929</v>
+        <v>1.025432150149982</v>
       </c>
       <c r="F25">
-        <v>1.035976885950232</v>
+        <v>1.035215445034726</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052198997383059</v>
+        <v>1.051564321825549</v>
       </c>
       <c r="J25">
-        <v>1.034062808365584</v>
+        <v>1.033414788615406</v>
       </c>
       <c r="K25">
-        <v>1.043910310738189</v>
+        <v>1.042691602551088</v>
       </c>
       <c r="L25">
-        <v>1.038208175640891</v>
+        <v>1.037648088243182</v>
       </c>
       <c r="M25">
-        <v>1.048041246680365</v>
+        <v>1.047290620398097</v>
       </c>
       <c r="N25">
-        <v>1.015262627182581</v>
+        <v>1.016125858020924</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046593789427678</v>
+        <v>1.045999723780812</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042166728954723</v>
+        <v>1.041318507968857</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023518059310781</v>
       </c>
     </row>
   </sheetData>
